--- a/input/images/mappingFHIR_ROR_ME3-0.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3-0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Réalisation\Conseil\ASIP\ANS-006 Contrat cadre CI SIS 2021\Projets\ANS-006-61_ROR_WS_2\Production\03 - Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE68151F-DDD3-475B-9DBD-B830D521984A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3248EC-191E-49A5-BC8B-B29775C59F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="581">
   <si>
     <t>FHIR path</t>
   </si>
@@ -1230,18 +1230,9 @@
     <t xml:space="preserve">                         </t>
   </si>
   <si>
-    <t xml:space="preserve">      extension:reliablePosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     extension:geodesicSystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">              </t>
   </si>
   <si>
-    <t xml:space="preserve">             </t>
-  </si>
-  <si>
     <t>adresse/pointRemise</t>
   </si>
   <si>
@@ -1275,9 +1266,6 @@
     <t>coordonneeGeographique/longitude</t>
   </si>
   <si>
-    <t>coordonneeGeographique/systemeGeodesique</t>
-  </si>
-  <si>
     <t>coordonneeGeographique/coordonneesFiables</t>
   </si>
   <si>
@@ -1630,9 +1618,6 @@
   </si>
   <si>
     <t>TarifAccueilDeJour+TarifAidesHumaines+ForfaitSocleHebergement+TarifPortageRepas</t>
-  </si>
-  <si>
-    <t>RORGeolocationLocation</t>
   </si>
   <si>
     <t>RORCommuneCog</t>
@@ -1839,16 +1824,10 @@
     <t>Cf. boiteLettreMSS</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>RORMetaComment (extension)</t>
   </si>
   <si>
     <t>RORMetaCreationDate (extension)</t>
-  </si>
-  <si>
-    <t>ROERMetaCreationDate (extension)</t>
   </si>
   <si>
     <t>JDV-J249-TerritoireSante-ROR</t>
@@ -1907,6 +1886,9 @@
   </si>
   <si>
     <t>OIName</t>
+  </si>
+  <si>
+    <t>RORCoordinateReliability</t>
   </si>
 </sst>
 </file>
@@ -2733,19 +2715,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2758,6 +2728,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3987,13 +3969,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="173" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B14" s="173"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B15" s="93"/>
     </row>
@@ -4002,7 +3984,7 @@
         <v>44981</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4040,9 +4022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29B823-4189-4F92-8E84-323E184E5AA4}">
   <dimension ref="A1:M354"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53:L57"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4092,7 +4074,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L1" s="101" t="s">
         <v>1</v>
@@ -4129,20 +4111,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="157" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -4161,24 +4143,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -4187,23 +4169,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -4215,23 +4197,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -4243,25 +4225,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -4274,27 +4256,27 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K8" s="165"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -4303,15 +4285,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K9" s="165"/>
     </row>
@@ -4346,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>68</v>
@@ -4376,17 +4358,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K12" s="128"/>
       <c r="L12" s="76"/>
@@ -4422,20 +4404,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J14" s="83" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L14" s="76"/>
     </row>
@@ -4454,20 +4436,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L15" s="76"/>
     </row>
@@ -4486,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>228</v>
@@ -4495,16 +4477,16 @@
         <v>12</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J16" s="83" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="52" x14ac:dyDescent="0.35">
@@ -4522,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>268</v>
@@ -4531,13 +4513,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J17" s="83" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -4556,20 +4538,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J18" s="50" t="s">
         <v>229</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L18" s="76"/>
     </row>
@@ -4587,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="91" t="s">
@@ -4600,7 +4582,7 @@
         <v>53</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L19" s="76"/>
     </row>
@@ -4618,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -4631,13 +4613,13 @@
         <v>54</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>67</v>
@@ -4649,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>12</v>
@@ -4664,13 +4646,13 @@
         <v>52</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C22" s="88" t="s">
         <v>225</v>
@@ -4682,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -4693,13 +4675,13 @@
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>72</v>
@@ -4711,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="91" t="s">
@@ -4724,13 +4706,13 @@
         <v>55</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>72</v>
@@ -4742,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="91" t="s">
@@ -4755,13 +4737,13 @@
         <v>56</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>227</v>
@@ -4773,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H25" s="69"/>
       <c r="I25" s="91" t="s">
@@ -4786,7 +4768,7 @@
         <v>226</v>
       </c>
       <c r="K25" s="127" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L25" s="76"/>
     </row>
@@ -4805,26 +4787,26 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>166</v>
       </c>
       <c r="K26" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -4836,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -4849,13 +4831,13 @@
         <v>93</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>67</v>
@@ -4867,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>376</v>
@@ -4882,13 +4864,13 @@
         <v>92</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>71</v>
@@ -4900,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25" t="s">
@@ -4913,13 +4895,13 @@
         <v>94</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>67</v>
@@ -4931,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>300</v>
@@ -4946,7 +4928,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="130" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -4963,20 +4945,20 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G31" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J31" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K31" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L31" s="76"/>
     </row>
@@ -4995,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>265</v>
@@ -5004,13 +4986,13 @@
         <v>12</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J32" s="83" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L32" s="76"/>
     </row>
@@ -5029,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>266</v>
@@ -5038,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J33" s="83" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L33" s="76"/>
     </row>
@@ -5063,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G34" s="79" t="s">
         <v>267</v>
@@ -5072,13 +5054,13 @@
         <v>12</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K34" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L34" s="76"/>
     </row>
@@ -5097,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G35" s="79" t="s">
         <v>274</v>
@@ -5106,13 +5088,13 @@
         <v>12</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J35" s="83" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L35" s="76"/>
     </row>
@@ -5131,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G36" s="79" t="s">
         <v>275</v>
@@ -5140,13 +5122,13 @@
         <v>12</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="127" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L36" s="76"/>
     </row>
@@ -5165,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G37" s="79" t="s">
         <v>275</v>
@@ -5174,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="127" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L37" s="76"/>
     </row>
@@ -5199,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>278</v>
@@ -5208,13 +5190,13 @@
         <v>12</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L38" s="76"/>
     </row>
@@ -5233,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G39" s="79" t="s">
         <v>279</v>
@@ -5242,13 +5224,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -5267,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G40" s="79" t="s">
         <v>280</v>
@@ -5276,13 +5258,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J40" s="83" t="s">
         <v>42</v>
       </c>
       <c r="K40" s="127" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L40" s="76"/>
     </row>
@@ -5301,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G41" s="79" t="s">
         <v>281</v>
@@ -5310,13 +5292,13 @@
         <v>12</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L41" s="76"/>
     </row>
@@ -5335,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G42" s="79" t="s">
         <v>282</v>
@@ -5344,13 +5326,13 @@
         <v>12</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J42" s="83" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L42" s="76"/>
     </row>
@@ -5369,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G43" s="79" t="s">
         <v>283</v>
@@ -5378,19 +5360,19 @@
         <v>12</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J43" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L43" s="76"/>
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="26" t="s">
@@ -5401,26 +5383,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K44" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>67</v>
@@ -5432,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G45" s="79" t="s">
         <v>284</v>
@@ -5447,13 +5429,13 @@
         <v>62</v>
       </c>
       <c r="K45" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L45" s="76"/>
     </row>
     <row r="46" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>67</v>
@@ -5465,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G46" s="79" t="s">
         <v>289</v>
@@ -5480,13 +5462,13 @@
         <v>63</v>
       </c>
       <c r="K46" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L46" s="76"/>
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="25" t="s">
@@ -5497,26 +5479,26 @@
         <v>1</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J47" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K47" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L47" s="76"/>
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B48" s="36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>74</v>
@@ -5528,26 +5510,26 @@
         <v>1</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G48" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J48" s="83" t="s">
         <v>46</v>
       </c>
       <c r="K48" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L48" s="76"/>
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B49" s="33" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>74</v>
@@ -5559,20 +5541,20 @@
         <v>1</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J49" s="83" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L49" s="76"/>
     </row>
@@ -5607,26 +5589,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G51" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J51" s="84" t="s">
         <v>49</v>
       </c>
       <c r="K51" s="132" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L51" s="76"/>
     </row>
     <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>50</v>
@@ -5641,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G52" s="79" t="s">
         <v>248</v>
@@ -5650,113 +5632,113 @@
         <v>12</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>301</v>
       </c>
       <c r="K52" s="132" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L52" s="76"/>
     </row>
     <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="177" t="s">
+      <c r="C53" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="183" t="s">
+      <c r="D53" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="176">
-        <v>1</v>
-      </c>
-      <c r="F53" s="184" t="s">
-        <v>449</v>
+      <c r="E53" s="181">
+        <v>1</v>
+      </c>
+      <c r="F53" s="180" t="s">
+        <v>445</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177" t="s">
-        <v>482</v>
-      </c>
-      <c r="J53" s="178" t="s">
+      <c r="H53" s="181"/>
+      <c r="I53" s="176" t="s">
+        <v>478</v>
+      </c>
+      <c r="J53" s="182" t="s">
         <v>302</v>
       </c>
-      <c r="K53" s="179" t="s">
-        <v>543</v>
-      </c>
-      <c r="L53" s="180"/>
+      <c r="K53" s="183" t="s">
+        <v>538</v>
+      </c>
+      <c r="L53" s="184"/>
     </row>
     <row r="54" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="182"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="184"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="180"/>
       <c r="G54" s="119" t="s">
-        <v>570</v>
-      </c>
-      <c r="H54" s="176"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="179"/>
-      <c r="L54" s="180"/>
+        <v>563</v>
+      </c>
+      <c r="H54" s="181"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="184"/>
     </row>
     <row r="55" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="182"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="184"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="180"/>
       <c r="G55" s="79" t="s">
-        <v>443</v>
-      </c>
-      <c r="H55" s="176"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="179"/>
-      <c r="L55" s="180"/>
+        <v>439</v>
+      </c>
+      <c r="H55" s="181"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="184"/>
     </row>
     <row r="56" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="182"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="184"/>
+      <c r="A56" s="178"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="176"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="180"/>
       <c r="G56" s="119" t="s">
-        <v>568</v>
-      </c>
-      <c r="H56" s="176"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="179"/>
-      <c r="L56" s="180"/>
+        <v>561</v>
+      </c>
+      <c r="H56" s="181"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="184"/>
     </row>
     <row r="57" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="182"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="184"/>
+      <c r="A57" s="178"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="180"/>
       <c r="G57" s="119" t="s">
-        <v>569</v>
-      </c>
-      <c r="H57" s="176"/>
-      <c r="I57" s="177"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="179"/>
-      <c r="L57" s="180"/>
+        <v>562</v>
+      </c>
+      <c r="H57" s="181"/>
+      <c r="I57" s="176"/>
+      <c r="J57" s="182"/>
+      <c r="K57" s="183"/>
+      <c r="L57" s="184"/>
     </row>
     <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -5773,20 +5755,20 @@
         <v>1</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J58" s="83" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="127" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L58" s="76"/>
     </row>
@@ -5805,20 +5787,20 @@
         <v>1</v>
       </c>
       <c r="F59" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G59" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J59" s="85" t="s">
         <v>39</v>
       </c>
       <c r="K59" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L59" s="76"/>
     </row>
@@ -5837,20 +5819,20 @@
         <v>1</v>
       </c>
       <c r="F60" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G60" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J60" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K60" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L60" s="76"/>
     </row>
@@ -5869,14 +5851,14 @@
         <v>1</v>
       </c>
       <c r="F61" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G61" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J61" s="83" t="s">
         <v>48</v>
@@ -5899,20 +5881,20 @@
         <v>1</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G62" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J62" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K62" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L62" s="76"/>
     </row>
@@ -5921,7 +5903,7 @@
         <v>238</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>67</v>
@@ -5933,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G63" s="79" t="s">
         <v>290</v>
@@ -5948,7 +5930,7 @@
         <v>58</v>
       </c>
       <c r="K63" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L63" s="76"/>
     </row>
@@ -5957,7 +5939,7 @@
         <v>382</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>75</v>
@@ -5969,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="25" t="s">
@@ -5982,7 +5964,7 @@
         <v>59</v>
       </c>
       <c r="K64" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L64" s="76"/>
     </row>
@@ -5991,7 +5973,7 @@
         <v>382</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>75</v>
@@ -6003,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G65" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="25" t="s">
@@ -6016,7 +5998,7 @@
         <v>60</v>
       </c>
       <c r="K65" s="127" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L65" s="76"/>
     </row>
@@ -6035,20 +6017,20 @@
         <v>1</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="25" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J66" s="118" t="s">
         <v>85</v>
       </c>
       <c r="K66" s="127" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L66" s="76"/>
     </row>
@@ -6069,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G67" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="25" t="s">
@@ -6082,7 +6064,7 @@
         <v>65</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L67" s="76"/>
     </row>
@@ -6091,7 +6073,7 @@
         <v>384</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>67</v>
@@ -6103,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G68" s="80" t="s">
         <v>299</v>
@@ -6116,7 +6098,7 @@
         <v>88</v>
       </c>
       <c r="K68" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L68" s="76"/>
     </row>
@@ -6137,10 +6119,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G69" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="25" t="s">
@@ -6150,7 +6132,7 @@
         <v>89</v>
       </c>
       <c r="K69" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L69" s="76"/>
     </row>
@@ -6159,7 +6141,7 @@
         <v>384</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>232</v>
@@ -6171,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G70" s="80" t="s">
         <v>298</v>
@@ -6184,7 +6166,7 @@
         <v>87</v>
       </c>
       <c r="K70" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L70" s="76"/>
     </row>
@@ -6193,7 +6175,7 @@
         <v>384</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>232</v>
@@ -6205,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G71" s="80" t="s">
         <v>300</v>
@@ -6218,13 +6200,13 @@
         <v>231</v>
       </c>
       <c r="K71" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>71</v>
@@ -6236,10 +6218,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25" t="s">
@@ -6249,13 +6231,13 @@
         <v>93</v>
       </c>
       <c r="K72" s="130" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -6267,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>376</v>
@@ -6282,13 +6264,13 @@
         <v>92</v>
       </c>
       <c r="K73" s="130" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>71</v>
@@ -6300,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -6313,13 +6295,13 @@
         <v>94</v>
       </c>
       <c r="K74" s="130" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>67</v>
@@ -6331,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>300</v>
@@ -6346,7 +6328,7 @@
         <v>90</v>
       </c>
       <c r="K75" s="130" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M75" s="5"/>
     </row>
@@ -9979,17 +9961,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="L53:L57"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="F53:F57"/>
     <mergeCell ref="E53:E57"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="L53:L57"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E9 E14:E18 E11 E51:E53 E26 E31:E49 E58:E71">
     <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
@@ -10108,7 +10090,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10157,7 +10139,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -10194,14 +10176,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10224,26 +10206,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10252,23 +10234,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10280,23 +10262,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10308,29 +10290,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>7</v>
@@ -10339,15 +10321,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K8" s="165"/>
     </row>
@@ -10382,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
@@ -10411,10 +10393,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
@@ -10427,7 +10409,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
@@ -10440,19 +10422,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K12" s="28"/>
     </row>
@@ -10536,8 +10518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4F01CC-1CF8-451A-99D2-028F600AEE46}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10587,7 +10569,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -10626,14 +10608,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10657,27 +10639,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K4" s="143"/>
       <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10686,24 +10668,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K5" s="165"/>
       <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10715,24 +10697,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K6" s="128"/>
       <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10744,26 +10726,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K7" s="127"/>
       <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="168" t="s">
@@ -10776,28 +10758,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="168" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -10806,15 +10788,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -10851,17 +10833,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J11" s="122" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K11" s="130"/>
     </row>
@@ -10880,17 +10862,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J12" s="122" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K12" s="130"/>
     </row>
@@ -10926,10 +10908,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="91" t="s">
@@ -10939,7 +10921,7 @@
         <v>223</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10957,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>303</v>
@@ -10972,7 +10954,7 @@
         <v>179</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10990,10 +10972,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="91" t="s">
@@ -11003,7 +10985,7 @@
         <v>195</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11021,10 +11003,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="91" t="s">
@@ -11034,7 +11016,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -11053,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="91" t="s">
@@ -11066,14 +11048,14 @@
         <v>54</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>67</v>
@@ -11085,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>12</v>
@@ -11100,14 +11082,14 @@
         <v>52</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L19" s="76"/>
     </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="40" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>225</v>
@@ -11119,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -11130,14 +11112,14 @@
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>72</v>
@@ -11149,10 +11131,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="91" t="s">
@@ -11162,14 +11144,14 @@
         <v>55</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="40" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>72</v>
@@ -11181,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -11194,14 +11176,14 @@
         <v>56</v>
       </c>
       <c r="K22" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>227</v>
@@ -11213,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="91" t="s">
@@ -11226,7 +11208,7 @@
         <v>226</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L23" s="76"/>
     </row>
@@ -11245,10 +11227,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="105" t="s">
@@ -11258,12 +11240,12 @@
         <v>91</v>
       </c>
       <c r="K24" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>71</v>
@@ -11275,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
@@ -11288,13 +11270,13 @@
         <v>93</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M25" s="140"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>67</v>
@@ -11306,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>376</v>
@@ -11321,13 +11303,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M26" s="140"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -11339,10 +11321,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -11352,13 +11334,13 @@
         <v>94</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M27" s="140"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>67</v>
@@ -11370,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>300</v>
@@ -11385,13 +11367,13 @@
         <v>90</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="40" t="s">
@@ -11404,20 +11386,20 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G29" s="107" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="103" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -11434,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>304</v>
@@ -11449,7 +11431,7 @@
         <v>181</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -11466,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>305</v>
@@ -11481,7 +11463,7 @@
         <v>182</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -11498,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>306</v>
@@ -11513,7 +11495,7 @@
         <v>183</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -11530,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>307</v>
@@ -11545,7 +11527,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -11562,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>308</v>
@@ -11577,7 +11559,7 @@
         <v>185</v>
       </c>
       <c r="K34" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -11594,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>309</v>
@@ -11609,7 +11591,7 @@
         <v>186</v>
       </c>
       <c r="K35" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -11626,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>310</v>
@@ -11641,7 +11623,7 @@
         <v>187</v>
       </c>
       <c r="K36" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -11658,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>311</v>
@@ -11673,7 +11655,7 @@
         <v>188</v>
       </c>
       <c r="K37" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -11690,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>312</v>
@@ -11705,7 +11687,7 @@
         <v>189</v>
       </c>
       <c r="K38" s="145" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -11722,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>281</v>
@@ -11737,7 +11719,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11772,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>313</v>
@@ -11787,12 +11769,12 @@
         <v>191</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B42" s="87"/>
       <c r="C42" s="47"/>
@@ -11803,22 +11785,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="25"/>
       <c r="I42" s="103" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K42" s="130"/>
     </row>
     <row r="43" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="87" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>67</v>
@@ -11830,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>315</v>
@@ -11845,14 +11827,14 @@
         <v>176</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L43" s="77"/>
     </row>
     <row r="44" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="87" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>71</v>
@@ -11864,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="25"/>
@@ -11875,13 +11857,13 @@
         <v>177</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="87" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>71</v>
@@ -11893,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G45" s="49"/>
       <c r="H45" s="25"/>
@@ -11904,12 +11886,12 @@
         <v>178</v>
       </c>
       <c r="K45" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="47" t="s">
@@ -11922,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>314</v>
@@ -11937,12 +11919,12 @@
         <v>192</v>
       </c>
       <c r="K46" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="47" t="s">
@@ -11955,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -11966,12 +11948,12 @@
         <v>193</v>
       </c>
       <c r="K47" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="47" t="s">
@@ -11984,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -11995,7 +11977,7 @@
         <v>194</v>
       </c>
       <c r="K48" s="145" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -12118,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638EC13-446E-4F6B-AFBD-5EC8594B64BB}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12169,7 +12151,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -12206,20 +12188,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="153" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -12237,26 +12219,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>24</v>
@@ -12268,16 +12250,16 @@
       <c r="G5" s="97"/>
       <c r="H5" s="39"/>
       <c r="I5" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -12289,23 +12271,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -12317,27 +12299,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K7" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -12350,28 +12332,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -12380,15 +12362,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -12424,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="18"/>
@@ -12454,7 +12436,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="25" t="s">
@@ -12467,10 +12449,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18"/>
@@ -12495,20 +12477,20 @@
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -12528,17 +12510,17 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -12559,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="18" t="s">
@@ -12569,13 +12551,13 @@
         <v>368</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>64</v>
@@ -12590,17 +12572,17 @@
         <v>4</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K17" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -12621,7 +12603,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="18" t="s">
@@ -12631,7 +12613,7 @@
         <v>369</v>
       </c>
       <c r="K18" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -12652,7 +12634,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="18" t="s">
@@ -12662,15 +12644,15 @@
         <v>131</v>
       </c>
       <c r="K19" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>64</v>
@@ -12685,14 +12667,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="16"/>
@@ -12712,10 +12694,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="18" t="s">
@@ -12725,15 +12707,15 @@
         <v>99</v>
       </c>
       <c r="K21" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="26" t="s">
@@ -12746,10 +12728,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -12759,7 +12741,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="19" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>27</v>
@@ -12771,24 +12753,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G23" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K23" s="162"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>27</v>
@@ -12800,27 +12782,27 @@
         <v>1</v>
       </c>
       <c r="F24" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>27</v>
@@ -12832,24 +12814,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G25" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K25" s="162"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>27</v>
@@ -12861,23 +12843,23 @@
         <v>1</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K26" s="162"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="26"/>
@@ -12888,10 +12870,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="18"/>
@@ -12913,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>236</v>
@@ -12928,10 +12910,10 @@
         <v>101</v>
       </c>
       <c r="K28" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -12949,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>237</v>
@@ -12964,7 +12946,7 @@
         <v>102</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -12982,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>374</v>
@@ -12997,10 +12979,10 @@
         <v>103</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -13018,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="18" t="s">
@@ -13031,13 +13013,13 @@
         <v>104</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="40" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>67</v>
@@ -13049,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>260</v>
@@ -13064,10 +13046,10 @@
         <v>132</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13085,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G33" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="18" t="s">
@@ -13098,7 +13080,7 @@
         <v>85</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -13118,10 +13100,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="18" t="s">
@@ -13131,7 +13113,7 @@
         <v>86</v>
       </c>
       <c r="K34" s="146" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -13149,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>375</v>
@@ -13164,7 +13146,7 @@
         <v>87</v>
       </c>
       <c r="K35" s="146" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -13184,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>299</v>
@@ -13199,7 +13181,7 @@
         <v>88</v>
       </c>
       <c r="K36" s="146" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -13219,10 +13201,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G37" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="18" t="s">
@@ -13232,7 +13214,7 @@
         <v>89</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -13252,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>300</v>
@@ -13267,7 +13249,7 @@
         <v>90</v>
       </c>
       <c r="K38" s="146" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="130" x14ac:dyDescent="0.35">
@@ -13287,10 +13269,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G39" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="18" t="s">
@@ -13300,15 +13282,15 @@
         <v>91</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>67</v>
@@ -13320,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>376</v>
@@ -13333,7 +13315,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="145" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -13341,7 +13323,7 @@
         <v>363</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>71</v>
@@ -13353,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="18" t="s">
@@ -13366,7 +13348,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -13374,7 +13356,7 @@
         <v>363</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>71</v>
@@ -13386,10 +13368,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="18" t="s">
@@ -13399,15 +13381,15 @@
         <v>91</v>
       </c>
       <c r="K42" s="145" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>67</v>
@@ -13419,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>300</v>
@@ -13434,7 +13416,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="52" x14ac:dyDescent="0.35">
@@ -13452,26 +13434,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="110" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>71</v>
@@ -13483,26 +13465,26 @@
         <v>1</v>
       </c>
       <c r="F45" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J45" s="108" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K45" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>71</v>
@@ -13514,26 +13496,26 @@
         <v>1</v>
       </c>
       <c r="F46" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G46" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="108" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K46" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -13541,22 +13523,22 @@
         <v>1</v>
       </c>
       <c r="F47" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G47" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="18"/>
       <c r="J47" s="108"/>
       <c r="K47" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>71</v>
@@ -13568,26 +13550,26 @@
         <v>1</v>
       </c>
       <c r="F48" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J48" s="71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K48" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>71</v>
@@ -13599,26 +13581,26 @@
         <v>1</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G49" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J49" s="71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K49" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>71</v>
@@ -13630,26 +13612,26 @@
         <v>1</v>
       </c>
       <c r="F50" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G50" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K50" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>71</v>
@@ -13661,26 +13643,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G51" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K51" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>67</v>
@@ -13692,10 +13674,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G52" s="120" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>12</v>
@@ -13704,16 +13686,16 @@
         <v>98</v>
       </c>
       <c r="J52" s="71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K52" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>71</v>
@@ -13725,26 +13707,26 @@
         <v>1</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G53" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J53" s="71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K53" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>71</v>
@@ -13756,26 +13738,26 @@
         <v>1</v>
       </c>
       <c r="F54" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G54" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J54" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K54" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>71</v>
@@ -13787,20 +13769,20 @@
         <v>1</v>
       </c>
       <c r="F55" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G55" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J55" s="71" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K55" s="150" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
@@ -13818,10 +13800,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="25" t="s">
@@ -13835,7 +13817,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>71</v>
@@ -13847,10 +13829,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G57" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25" t="s">
@@ -13864,7 +13846,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>67</v>
@@ -13876,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>376</v>
@@ -13895,7 +13877,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>71</v>
@@ -13907,10 +13889,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G59" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25" t="s">
@@ -13924,7 +13906,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>67</v>
@@ -13936,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>300</v>
@@ -13983,10 +13965,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
@@ -13999,7 +13981,7 @@
     </row>
     <row r="63" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B63" s="87" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>67</v>
@@ -14011,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>381</v>
@@ -14026,12 +14008,12 @@
         <v>114</v>
       </c>
       <c r="K63" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B64" s="87" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>129</v>
@@ -14043,10 +14025,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25" t="s">
@@ -14056,12 +14038,12 @@
         <v>115</v>
       </c>
       <c r="K64" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B65" s="87" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>67</v>
@@ -14073,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>377</v>
@@ -14088,12 +14070,12 @@
         <v>116</v>
       </c>
       <c r="K65" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B66" s="38" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>72</v>
@@ -14105,10 +14087,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G66" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25" t="s">
@@ -14118,12 +14100,12 @@
         <v>117</v>
       </c>
       <c r="K66" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B67" s="38" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>67</v>
@@ -14135,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>259</v>
@@ -14150,12 +14132,12 @@
         <v>118</v>
       </c>
       <c r="K67" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B68" s="38" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>71</v>
@@ -14167,10 +14149,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G68" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
@@ -14180,12 +14162,12 @@
         <v>119</v>
       </c>
       <c r="K68" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B69" s="38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>70</v>
@@ -14197,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G69" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="25" t="s">
@@ -14210,7 +14192,7 @@
         <v>120</v>
       </c>
       <c r="K69" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14227,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>333</v>
@@ -14236,18 +14218,18 @@
         <v>12</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J70" s="110" t="s">
         <v>121</v>
       </c>
       <c r="K70" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B71" s="38" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>67</v>
@@ -14259,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>265</v>
@@ -14272,12 +14254,12 @@
         <v>32</v>
       </c>
       <c r="K71" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B72" s="38" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>67</v>
@@ -14289,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>378</v>
@@ -14298,18 +14280,18 @@
         <v>12</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J72" s="110" t="s">
         <v>122</v>
       </c>
       <c r="K72" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B73" s="38" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -14321,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>379</v>
@@ -14336,12 +14318,12 @@
         <v>123</v>
       </c>
       <c r="K73" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B74" s="38" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>71</v>
@@ -14353,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -14366,12 +14348,12 @@
         <v>124</v>
       </c>
       <c r="K74" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B75" s="38" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>71</v>
@@ -14383,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G75" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25" t="s">
@@ -14396,7 +14378,7 @@
         <v>125</v>
       </c>
       <c r="K75" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14413,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>274</v>
@@ -14428,7 +14410,7 @@
         <v>34</v>
       </c>
       <c r="K76" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14446,10 +14428,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
@@ -14459,7 +14441,7 @@
         <v>126</v>
       </c>
       <c r="K77" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14477,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>259</v>
@@ -14492,7 +14474,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14510,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G79" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
@@ -14523,7 +14505,7 @@
         <v>113</v>
       </c>
       <c r="K79" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14540,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>248</v>
@@ -14552,102 +14534,102 @@
         <v>112</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K80" s="160"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="187"/>
-      <c r="B81" s="181" t="s">
+      <c r="B81" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="177" t="s">
+      <c r="C81" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="183" t="s">
+      <c r="D81" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="176">
+      <c r="E81" s="181">
         <v>1</v>
       </c>
       <c r="F81" s="188" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="176"/>
+      <c r="H81" s="181"/>
       <c r="I81" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="J81" s="177" t="s">
-        <v>527</v>
+      <c r="J81" s="176" t="s">
+        <v>523</v>
       </c>
       <c r="K81" s="189"/>
       <c r="L81" s="186"/>
     </row>
     <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="187"/>
-      <c r="B82" s="181"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="183"/>
-      <c r="E82" s="176"/>
+      <c r="B82" s="177"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="179"/>
+      <c r="E82" s="181"/>
       <c r="F82" s="188"/>
       <c r="G82" s="119" t="s">
-        <v>570</v>
-      </c>
-      <c r="H82" s="176"/>
+        <v>563</v>
+      </c>
+      <c r="H82" s="181"/>
       <c r="I82" s="185"/>
-      <c r="J82" s="177"/>
+      <c r="J82" s="176"/>
       <c r="K82" s="189"/>
       <c r="L82" s="186"/>
     </row>
     <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="187"/>
-      <c r="B83" s="181"/>
-      <c r="C83" s="177"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="176"/>
+      <c r="B83" s="177"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="181"/>
       <c r="F83" s="188"/>
       <c r="G83" s="79" t="s">
-        <v>443</v>
-      </c>
-      <c r="H83" s="176"/>
+        <v>439</v>
+      </c>
+      <c r="H83" s="181"/>
       <c r="I83" s="185"/>
-      <c r="J83" s="177"/>
+      <c r="J83" s="176"/>
       <c r="K83" s="189"/>
       <c r="L83" s="186"/>
     </row>
     <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="187"/>
-      <c r="B84" s="181"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="176"/>
+      <c r="B84" s="177"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="179"/>
+      <c r="E84" s="181"/>
       <c r="F84" s="188"/>
       <c r="G84" s="119" t="s">
-        <v>568</v>
-      </c>
-      <c r="H84" s="176"/>
+        <v>561</v>
+      </c>
+      <c r="H84" s="181"/>
       <c r="I84" s="185"/>
-      <c r="J84" s="177"/>
+      <c r="J84" s="176"/>
       <c r="K84" s="189"/>
       <c r="L84" s="186"/>
     </row>
     <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="187"/>
-      <c r="B85" s="181"/>
-      <c r="C85" s="177"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="176"/>
+      <c r="B85" s="177"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="181"/>
       <c r="F85" s="188"/>
       <c r="G85" s="119" t="s">
-        <v>569</v>
-      </c>
-      <c r="H85" s="176"/>
+        <v>562</v>
+      </c>
+      <c r="H85" s="181"/>
       <c r="I85" s="185"/>
-      <c r="J85" s="177"/>
+      <c r="J85" s="176"/>
       <c r="K85" s="189"/>
       <c r="L85" s="186"/>
     </row>
@@ -14666,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G86" s="51" t="s">
         <v>380</v>
@@ -14679,7 +14661,7 @@
         <v>111</v>
       </c>
       <c r="K86" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14697,10 +14679,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G87" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="18" t="s">
@@ -14710,7 +14692,7 @@
         <v>106</v>
       </c>
       <c r="K87" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14728,10 +14710,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="18" t="s">
@@ -14741,7 +14723,7 @@
         <v>107</v>
       </c>
       <c r="K88" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14759,10 +14741,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G89" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="18" t="s">
@@ -14772,7 +14754,7 @@
         <v>108</v>
       </c>
       <c r="K89" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14790,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G90" s="51" t="s">
         <v>253</v>
@@ -14803,7 +14785,7 @@
         <v>109</v>
       </c>
       <c r="K90" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -14821,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G91" s="51" t="s">
         <v>255</v>
@@ -14836,12 +14818,12 @@
         <v>110</v>
       </c>
       <c r="K91" s="155" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="36" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="26"/>
@@ -14852,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="25"/>
@@ -14863,10 +14845,10 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>24</v>
@@ -14875,25 +14857,25 @@
         <v>1</v>
       </c>
       <c r="F93" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="25"/>
       <c r="I93" s="18" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J93" s="110" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K93" s="161"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>24</v>
@@ -14902,12 +14884,12 @@
         <v>1</v>
       </c>
       <c r="F94" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="25"/>
       <c r="I94" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J94" s="110" t="s">
         <v>46</v>
@@ -14916,7 +14898,7 @@
     </row>
     <row r="95" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="36" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="26" t="s">
@@ -14929,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G95" s="51" t="s">
         <v>283</v>
@@ -14938,22 +14920,22 @@
         <v>12</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J95" s="110" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="36" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>24</v>
@@ -14962,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="25"/>
@@ -14976,11 +14958,11 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="36" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>24</v>
@@ -14989,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="25"/>
@@ -14997,7 +14979,7 @@
         <v>98</v>
       </c>
       <c r="J97" s="110" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K97" s="161"/>
     </row>
@@ -15016,10 +14998,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G98" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -15029,12 +15011,12 @@
         <v>105</v>
       </c>
       <c r="K98" s="145" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="47" t="s">
@@ -15047,23 +15029,23 @@
         <v>1</v>
       </c>
       <c r="F99" s="113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G99" s="114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K99" s="162"/>
     </row>
     <row r="100" spans="1:11" ht="52" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="26" t="s">
@@ -15076,10 +15058,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="172" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G100" s="171" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H100" s="169"/>
       <c r="I100" s="18" t="s">
@@ -15089,7 +15071,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="145" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -15232,10 +15214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DE6E3-30D2-41B6-BBA2-2DDBEC0FD510}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I34" zoomScale="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15284,7 +15266,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -15321,17 +15303,17 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="5"/>
@@ -15351,26 +15333,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -15379,23 +15361,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -15407,23 +15389,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -15435,29 +15417,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>7</v>
@@ -15466,15 +15448,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
@@ -15497,7 +15479,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="25" t="s">
@@ -15510,10 +15492,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="25"/>
@@ -15534,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="25" t="s">
@@ -15547,7 +15529,7 @@
         <v>134</v>
       </c>
       <c r="K11" s="149" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15564,25 +15546,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J12" s="71" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="149" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
@@ -15595,10 +15577,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="25"/>
@@ -15607,7 +15589,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>27</v>
@@ -15619,17 +15601,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J14" s="108" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K14" s="164"/>
     </row>
@@ -15648,20 +15630,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15679,20 +15661,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J16" s="108" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="150" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15710,20 +15692,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>137</v>
       </c>
       <c r="K17" s="150" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -15741,25 +15723,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="150" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>71</v>
@@ -15771,10 +15753,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25" t="s">
@@ -15784,13 +15766,13 @@
         <v>93</v>
       </c>
       <c r="K19" s="130" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>51</v>
@@ -15802,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>376</v>
@@ -15817,13 +15799,13 @@
         <v>92</v>
       </c>
       <c r="K20" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>71</v>
@@ -15835,10 +15817,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
@@ -15848,13 +15830,13 @@
         <v>94</v>
       </c>
       <c r="K21" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>67</v>
@@ -15866,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>300</v>
@@ -15881,7 +15863,7 @@
         <v>90</v>
       </c>
       <c r="K22" s="130" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -15900,25 +15882,25 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="25" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J23" s="71" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="149" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>71</v>
@@ -15930,25 +15912,25 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J24" s="108" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K24" s="150" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>71</v>
@@ -15960,25 +15942,25 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J25" s="108" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K25" s="150" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>71</v>
@@ -15990,25 +15972,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G26" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K26" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>71</v>
@@ -16020,25 +16002,25 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G27" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K27" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>71</v>
@@ -16050,25 +16032,25 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J28" s="71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K28" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>71</v>
@@ -16080,25 +16062,25 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K29" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>67</v>
@@ -16110,25 +16092,25 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>351</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K30" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>71</v>
@@ -16140,25 +16122,25 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G31" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H31" s="69"/>
       <c r="I31" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K31" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>71</v>
@@ -16170,25 +16152,25 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G32" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H32" s="69"/>
       <c r="I32" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J32" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K32" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>71</v>
@@ -16200,20 +16182,20 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K33" s="149" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16231,25 +16213,25 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G34" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J34" s="71" t="s">
         <v>140</v>
       </c>
       <c r="K34" s="149" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>141</v>
@@ -16264,20 +16246,20 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G35" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H35" s="69"/>
       <c r="I35" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J35" s="71" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K35" s="149" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16295,91 +16277,78 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G36" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H36" s="69"/>
       <c r="I36" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J36" s="71" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K36" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
+        <v>580</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="E37" s="39">
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G37" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H37" s="69"/>
       <c r="I37" s="169" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="149"/>
-    </row>
-    <row r="38" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1</v>
-      </c>
-      <c r="F38" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G38" s="97" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="169" t="s">
-        <v>576</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K38" s="149" t="s">
-        <v>541</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="K37" s="149" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>396</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>24</v>
@@ -16388,75 +16357,86 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="H39" s="69"/>
-      <c r="I39" s="169" t="s">
-        <v>576</v>
+      <c r="I39" s="25" t="s">
+        <v>569</v>
       </c>
       <c r="J39" s="71" t="s">
-        <v>412</v>
+        <v>138</v>
       </c>
       <c r="K39" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="55"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="69"/>
+      <c r="I40" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="K40" s="163"/>
     </row>
     <row r="41" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="28" t="s">
-        <v>67</v>
+      <c r="A41" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E41" s="39">
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>327</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="G41" s="25"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="J41" s="71" t="s">
-        <v>138</v>
-      </c>
+      <c r="I41" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="69"/>
       <c r="K41" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="29" t="s">
@@ -16466,182 +16446,186 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H42" s="69"/>
-      <c r="I42" s="25" t="s">
-        <v>576</v>
+      <c r="I42" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="J42" s="71" t="s">
-        <v>490</v>
-      </c>
-      <c r="K42" s="163"/>
+        <v>144</v>
+      </c>
+      <c r="K42" s="149" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B43" s="21"/>
+      <c r="A43" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="C43" s="27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E43" s="39">
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G43" s="25"/>
+        <v>445</v>
+      </c>
+      <c r="G43" s="97" t="s">
+        <v>445</v>
+      </c>
       <c r="H43" s="69"/>
       <c r="I43" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="69"/>
+      <c r="J43" s="71" t="s">
+        <v>145</v>
+      </c>
       <c r="K43" s="149" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>364</v>
-      </c>
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="50"/>
       <c r="C44" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E44" s="39">
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>335</v>
+        <v>445</v>
+      </c>
+      <c r="G44" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="H44" s="69"/>
       <c r="I44" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="71" t="s">
-        <v>144</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J44" s="69"/>
       <c r="K44" s="149" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>366</v>
+      <c r="A45" s="33"/>
+      <c r="B45" s="40" t="s">
+        <v>330</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E45" s="39">
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G45" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>328</v>
       </c>
       <c r="H45" s="69"/>
       <c r="I45" s="71" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J45" s="71" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K45" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" s="50"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>332</v>
+      </c>
       <c r="C46" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E46" s="39">
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G46" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="69"/>
-      <c r="K46" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="40" t="s">
-        <v>330</v>
-      </c>
+      <c r="J46" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="152" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E47" s="39">
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>328</v>
+        <v>445</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="H47" s="69"/>
       <c r="I47" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J47" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="K47" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>73</v>
+        <v>146</v>
+      </c>
+      <c r="J47" s="69"/>
+      <c r="K47" s="152" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="A48" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>7</v>
@@ -16650,153 +16634,157 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G48" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>333</v>
       </c>
       <c r="H48" s="69"/>
       <c r="I48" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J48" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="152" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="27" t="s">
-        <v>76</v>
+        <v>146</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="149" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="A49" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="E49" s="39">
         <v>1</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H49" s="69"/>
       <c r="I49" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="J49" s="69"/>
-      <c r="K49" s="152" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>67</v>
+      <c r="J49" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="149" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E50" s="39">
         <v>1</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>333</v>
+        <v>445</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="H50" s="69"/>
       <c r="I50" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K50" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="J50" s="69"/>
+      <c r="K50" s="151"/>
+    </row>
+    <row r="51" spans="1:12" ht="65" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>79</v>
+        <v>339</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E51" s="39">
         <v>1</v>
       </c>
       <c r="F51" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="H51" s="69"/>
       <c r="I51" s="71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K51" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="25" t="s">
-        <v>76</v>
+        <v>340</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="E52" s="39">
         <v>1</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>233</v>
       </c>
       <c r="H52" s="69"/>
       <c r="I52" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="151"/>
-    </row>
-    <row r="53" spans="1:12" ht="65" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>67</v>
+        <v>150</v>
+      </c>
+      <c r="J52" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" s="149" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>7</v>
@@ -16805,28 +16793,29 @@
         <v>1</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="H53" s="69"/>
       <c r="I53" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="J53" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="K53" s="149" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>170</v>
@@ -16838,31 +16827,31 @@
         <v>1</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="H54" s="69"/>
       <c r="I54" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J54" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="149" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="K54" s="152" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>7</v>
@@ -16871,29 +16860,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>234</v>
+        <v>445</v>
+      </c>
+      <c r="G55" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="H55" s="69"/>
       <c r="I55" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J55" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="K55" s="149" t="s">
-        <v>552</v>
-      </c>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="1:12" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="K55" s="152" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>170</v>
@@ -16905,64 +16893,64 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H56" s="69"/>
       <c r="I56" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J56" s="74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K56" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E57" s="39">
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G57" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="H57" s="69"/>
       <c r="I57" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J57" s="74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K57" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>7</v>
@@ -16971,31 +16959,31 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>352</v>
+        <v>445</v>
+      </c>
+      <c r="G58" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="H58" s="69"/>
       <c r="I58" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J58" s="74" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K58" s="152" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>24</v>
@@ -17004,61 +16992,61 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H59" s="69"/>
       <c r="I59" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J59" s="74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K59" s="152" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A60" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E60" s="39">
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G60" s="97" t="s">
-        <v>449</v>
+        <v>445</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="H60" s="69"/>
       <c r="I60" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J60" s="74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K60" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>170</v>
@@ -17070,90 +17058,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H61" s="69"/>
       <c r="I61" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J61" s="74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="H62" s="69"/>
-      <c r="I62" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="K62" s="152" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1</v>
-      </c>
-      <c r="F63" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="H63" s="69"/>
-      <c r="I63" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="J63" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="K63" s="152" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E41:E63 E10:E12 E23:E39 E15:E18 E8">
+  <conditionalFormatting sqref="E39:E61 E10:E12 E15:E18 E8 E23:E37">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -17209,21 +17131,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G53" r:id="rId1" xr:uid="{C383A038-371B-4A24-B18D-D850FB5C5EEE}"/>
-    <hyperlink ref="G58" r:id="rId2" xr:uid="{08EA1489-3F8A-44E5-AEB6-6907394E5AD8}"/>
-    <hyperlink ref="G59" r:id="rId3" xr:uid="{DC924E46-03C6-4918-8E1D-F8E863E5B89C}"/>
-    <hyperlink ref="G61" r:id="rId4" xr:uid="{B9418376-414A-4F86-8C45-5CD902123AD5}"/>
-    <hyperlink ref="G62" r:id="rId5" xr:uid="{CAA3D22E-1BA8-437B-93C8-FDA8A5AB56C1}"/>
-    <hyperlink ref="G63" r:id="rId6" xr:uid="{C53120CD-C6D8-4E9C-8AE8-B5C63D49994B}"/>
-    <hyperlink ref="G47" r:id="rId7" xr:uid="{1381FAB2-5C77-4225-B683-2A1760CE826F}"/>
-    <hyperlink ref="G42" r:id="rId8" xr:uid="{9F092322-E71C-4B70-B418-CDD92D902270}"/>
-    <hyperlink ref="G41" r:id="rId9" xr:uid="{866FEFF2-8245-4B6D-8AC3-A764D8F1C780}"/>
-    <hyperlink ref="G44" r:id="rId10" xr:uid="{CE03E88A-5AE4-40A0-91AC-A07E39CCA519}"/>
-    <hyperlink ref="G50" r:id="rId11" xr:uid="{DD0AEAE1-6524-48CB-8C4D-8EAE8260A01D}"/>
+    <hyperlink ref="G51" r:id="rId1" xr:uid="{C383A038-371B-4A24-B18D-D850FB5C5EEE}"/>
+    <hyperlink ref="G56" r:id="rId2" xr:uid="{08EA1489-3F8A-44E5-AEB6-6907394E5AD8}"/>
+    <hyperlink ref="G57" r:id="rId3" xr:uid="{DC924E46-03C6-4918-8E1D-F8E863E5B89C}"/>
+    <hyperlink ref="G59" r:id="rId4" xr:uid="{B9418376-414A-4F86-8C45-5CD902123AD5}"/>
+    <hyperlink ref="G60" r:id="rId5" xr:uid="{CAA3D22E-1BA8-437B-93C8-FDA8A5AB56C1}"/>
+    <hyperlink ref="G61" r:id="rId6" xr:uid="{C53120CD-C6D8-4E9C-8AE8-B5C63D49994B}"/>
+    <hyperlink ref="G45" r:id="rId7" xr:uid="{1381FAB2-5C77-4225-B683-2A1760CE826F}"/>
+    <hyperlink ref="G40" r:id="rId8" xr:uid="{9F092322-E71C-4B70-B418-CDD92D902270}"/>
+    <hyperlink ref="G39" r:id="rId9" xr:uid="{866FEFF2-8245-4B6D-8AC3-A764D8F1C780}"/>
+    <hyperlink ref="G42" r:id="rId10" xr:uid="{CE03E88A-5AE4-40A0-91AC-A07E39CCA519}"/>
+    <hyperlink ref="G48" r:id="rId11" xr:uid="{DD0AEAE1-6524-48CB-8C4D-8EAE8260A01D}"/>
     <hyperlink ref="G30" r:id="rId12" xr:uid="{9A17DEBF-1542-4174-B0ED-99E8295A143B}"/>
-    <hyperlink ref="G54" r:id="rId13" xr:uid="{64E03E1F-BFDE-415C-9B74-8EEECBD53EE2}"/>
-    <hyperlink ref="G55" r:id="rId14" xr:uid="{7B62689A-1237-4BD4-AC5C-C54160CEA4DC}"/>
-    <hyperlink ref="G56" r:id="rId15" display="JDV_J189-TemporaliteCapacite-ROR/" xr:uid="{539D2E7F-50DA-4BFC-B17A-6C835C2B9061}"/>
+    <hyperlink ref="G52" r:id="rId13" xr:uid="{64E03E1F-BFDE-415C-9B74-8EEECBD53EE2}"/>
+    <hyperlink ref="G53" r:id="rId14" xr:uid="{7B62689A-1237-4BD4-AC5C-C54160CEA4DC}"/>
+    <hyperlink ref="G54" r:id="rId15" display="JDV_J189-TemporaliteCapacite-ROR/" xr:uid="{539D2E7F-50DA-4BFC-B17A-6C835C2B9061}"/>
     <hyperlink ref="G7" r:id="rId16" xr:uid="{323D6299-D414-4972-9C3A-06A2DCFD42FF}"/>
     <hyperlink ref="G17" r:id="rId17" xr:uid="{42B5866E-A475-46E0-BB36-AC7A5AAAB91F}"/>
     <hyperlink ref="G20" r:id="rId18" xr:uid="{3D8FA0CA-94C2-4CAD-9638-73390110E547}"/>
@@ -17237,13 +17159,13 @@
           <x14:formula1>
             <xm:f>Options!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L9 H15:H1048576 I2 H10:H12 H3:H8</xm:sqref>
+          <xm:sqref>L9 I2 H10:H12 H3:H8 H15:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4986AD22-2C4C-4B1F-ABB4-C29035467E8A}">
           <x14:formula1>
             <xm:f>Options!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F9 E40 E19:E22 E2:E8</xm:sqref>
+          <xm:sqref>F9 E38 E19:E22 E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/input/images/mappingFHIR_ROR_ME3-0.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Réalisation\Conseil\ASIP\ANS-006 Contrat cadre CI SIS 2021\Projets\ANS-006-61_ROR_WS_2\Production\03 - Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv-my.sharepoint.com/personal/sylvain_demey_esante_gouv_fr/Documents/Documents/GitHub/IG-fhir-repertoire-offre-ressources-sante/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3248EC-191E-49A5-BC8B-B29775C59F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4A3248EC-191E-49A5-BC8B-B29775C59F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E55C5C9-0B57-4C40-8734-45B86F6693C3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -1257,9 +1257,6 @@
     <t>adresse/codePostal</t>
   </si>
   <si>
-    <t>adresse/localité</t>
-  </si>
-  <si>
     <t>coordonneeGeographique/latitude</t>
   </si>
   <si>
@@ -1889,6 +1886,9 @@
   </si>
   <si>
     <t>RORCoordinateReliability</t>
+  </si>
+  <si>
+    <t>adresse/localite</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2715,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2728,18 +2740,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3969,13 +3969,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="173" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B14" s="173"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" s="93"/>
     </row>
@@ -3984,7 +3984,7 @@
         <v>44981</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4074,7 +4074,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L1" s="101" t="s">
         <v>1</v>
@@ -4111,20 +4111,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -4143,24 +4143,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="121" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -4169,23 +4169,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -4197,23 +4197,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -4225,25 +4225,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="83" t="s">
         <v>440</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>441</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -4256,23 +4256,23 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -4285,15 +4285,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
     </row>
@@ -4328,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>68</v>
@@ -4358,17 +4358,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K12" s="128"/>
       <c r="L12" s="76"/>
@@ -4404,20 +4404,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J14" s="83" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L14" s="76"/>
     </row>
@@ -4436,20 +4436,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L15" s="76"/>
     </row>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>228</v>
@@ -4477,16 +4477,16 @@
         <v>12</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J16" s="83" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="52" x14ac:dyDescent="0.35">
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>268</v>
@@ -4513,13 +4513,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J17" s="83" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -4538,20 +4538,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J18" s="50" t="s">
         <v>229</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L18" s="76"/>
     </row>
@@ -4569,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="91" t="s">
@@ -4582,7 +4582,7 @@
         <v>53</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L19" s="76"/>
     </row>
@@ -4600,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -4613,13 +4613,13 @@
         <v>54</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>67</v>
@@ -4631,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>12</v>
@@ -4646,13 +4646,13 @@
         <v>52</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C22" s="88" t="s">
         <v>225</v>
@@ -4664,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -4675,13 +4675,13 @@
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>72</v>
@@ -4693,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="91" t="s">
@@ -4706,13 +4706,13 @@
         <v>55</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>72</v>
@@ -4724,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="91" t="s">
@@ -4737,13 +4737,13 @@
         <v>56</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>227</v>
@@ -4755,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H25" s="69"/>
       <c r="I25" s="91" t="s">
@@ -4768,7 +4768,7 @@
         <v>226</v>
       </c>
       <c r="K25" s="127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L25" s="76"/>
     </row>
@@ -4787,26 +4787,26 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G26" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>166</v>
       </c>
       <c r="K26" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -4818,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -4831,13 +4831,13 @@
         <v>93</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>67</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>376</v>
@@ -4864,13 +4864,13 @@
         <v>92</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>71</v>
@@ -4882,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25" t="s">
@@ -4895,13 +4895,13 @@
         <v>94</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>67</v>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>300</v>
@@ -4928,7 +4928,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="130" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -4945,20 +4945,20 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G31" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J31" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K31" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L31" s="76"/>
     </row>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>265</v>
@@ -4986,13 +4986,13 @@
         <v>12</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J32" s="83" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L32" s="76"/>
     </row>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>266</v>
@@ -5020,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J33" s="83" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L33" s="76"/>
     </row>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G34" s="79" t="s">
         <v>267</v>
@@ -5054,13 +5054,13 @@
         <v>12</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="J34" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="J34" s="83" t="s">
-        <v>479</v>
-      </c>
       <c r="K34" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L34" s="76"/>
     </row>
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G35" s="79" t="s">
         <v>274</v>
@@ -5088,13 +5088,13 @@
         <v>12</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J35" s="83" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L35" s="76"/>
     </row>
@@ -5113,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" s="79" t="s">
         <v>275</v>
@@ -5122,13 +5122,13 @@
         <v>12</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L36" s="76"/>
     </row>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G37" s="79" t="s">
         <v>275</v>
@@ -5156,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L37" s="76"/>
     </row>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>278</v>
@@ -5190,13 +5190,13 @@
         <v>12</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L38" s="76"/>
     </row>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G39" s="79" t="s">
         <v>279</v>
@@ -5224,13 +5224,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G40" s="79" t="s">
         <v>280</v>
@@ -5258,13 +5258,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J40" s="83" t="s">
         <v>42</v>
       </c>
       <c r="K40" s="127" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L40" s="76"/>
     </row>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G41" s="79" t="s">
         <v>281</v>
@@ -5292,13 +5292,13 @@
         <v>12</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L41" s="76"/>
     </row>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G42" s="79" t="s">
         <v>282</v>
@@ -5326,13 +5326,13 @@
         <v>12</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J42" s="83" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L42" s="76"/>
     </row>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G43" s="79" t="s">
         <v>283</v>
@@ -5360,19 +5360,19 @@
         <v>12</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J43" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L43" s="76"/>
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="26" t="s">
@@ -5383,26 +5383,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K44" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>67</v>
@@ -5414,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G45" s="79" t="s">
         <v>284</v>
@@ -5429,13 +5429,13 @@
         <v>62</v>
       </c>
       <c r="K45" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L45" s="76"/>
     </row>
     <row r="46" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>67</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G46" s="79" t="s">
         <v>289</v>
@@ -5462,13 +5462,13 @@
         <v>63</v>
       </c>
       <c r="K46" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L46" s="76"/>
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="25" t="s">
@@ -5479,26 +5479,26 @@
         <v>1</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J47" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K47" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L47" s="76"/>
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B48" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>74</v>
@@ -5510,26 +5510,26 @@
         <v>1</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G48" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J48" s="83" t="s">
         <v>46</v>
       </c>
       <c r="K48" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L48" s="76"/>
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B49" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>74</v>
@@ -5541,20 +5541,20 @@
         <v>1</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J49" s="83" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L49" s="76"/>
     </row>
@@ -5589,26 +5589,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G51" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J51" s="84" t="s">
         <v>49</v>
       </c>
       <c r="K51" s="132" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L51" s="76"/>
     </row>
     <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>50</v>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G52" s="79" t="s">
         <v>248</v>
@@ -5632,113 +5632,113 @@
         <v>12</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>301</v>
       </c>
       <c r="K52" s="132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L52" s="76"/>
     </row>
     <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="176" t="s">
+      <c r="C53" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="179" t="s">
+      <c r="D53" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="181">
-        <v>1</v>
-      </c>
-      <c r="F53" s="180" t="s">
-        <v>445</v>
+      <c r="E53" s="176">
+        <v>1</v>
+      </c>
+      <c r="F53" s="184" t="s">
+        <v>444</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H53" s="181"/>
-      <c r="I53" s="176" t="s">
-        <v>478</v>
-      </c>
-      <c r="J53" s="182" t="s">
+      <c r="H53" s="176"/>
+      <c r="I53" s="177" t="s">
+        <v>477</v>
+      </c>
+      <c r="J53" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="K53" s="183" t="s">
-        <v>538</v>
-      </c>
-      <c r="L53" s="184"/>
+      <c r="K53" s="179" t="s">
+        <v>537</v>
+      </c>
+      <c r="L53" s="180"/>
     </row>
     <row r="54" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="178"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="180"/>
+      <c r="A54" s="182"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="184"/>
       <c r="G54" s="119" t="s">
-        <v>563</v>
-      </c>
-      <c r="H54" s="181"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="182"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="184"/>
+        <v>562</v>
+      </c>
+      <c r="H54" s="176"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
     </row>
     <row r="55" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="178"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="181"/>
-      <c r="F55" s="180"/>
+      <c r="A55" s="182"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="184"/>
       <c r="G55" s="79" t="s">
-        <v>439</v>
-      </c>
-      <c r="H55" s="181"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="182"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="184"/>
+        <v>438</v>
+      </c>
+      <c r="H55" s="176"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
     </row>
     <row r="56" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="178"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="180"/>
+      <c r="A56" s="182"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="183"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="184"/>
       <c r="G56" s="119" t="s">
+        <v>560</v>
+      </c>
+      <c r="H56" s="176"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="180"/>
+    </row>
+    <row r="57" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="182"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="119" t="s">
         <v>561</v>
       </c>
-      <c r="H56" s="181"/>
-      <c r="I56" s="176"/>
-      <c r="J56" s="182"/>
-      <c r="K56" s="183"/>
-      <c r="L56" s="184"/>
-    </row>
-    <row r="57" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="178"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="H57" s="181"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="183"/>
-      <c r="L57" s="184"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="178"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="180"/>
     </row>
     <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -5755,20 +5755,20 @@
         <v>1</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J58" s="83" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="127" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L58" s="76"/>
     </row>
@@ -5787,20 +5787,20 @@
         <v>1</v>
       </c>
       <c r="F59" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G59" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J59" s="85" t="s">
         <v>39</v>
       </c>
       <c r="K59" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L59" s="76"/>
     </row>
@@ -5819,20 +5819,20 @@
         <v>1</v>
       </c>
       <c r="F60" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G60" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J60" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K60" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L60" s="76"/>
     </row>
@@ -5851,14 +5851,14 @@
         <v>1</v>
       </c>
       <c r="F61" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G61" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J61" s="83" t="s">
         <v>48</v>
@@ -5881,20 +5881,20 @@
         <v>1</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G62" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J62" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K62" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L62" s="76"/>
     </row>
@@ -5903,7 +5903,7 @@
         <v>238</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>67</v>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G63" s="79" t="s">
         <v>290</v>
@@ -5930,7 +5930,7 @@
         <v>58</v>
       </c>
       <c r="K63" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L63" s="76"/>
     </row>
@@ -5939,7 +5939,7 @@
         <v>382</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>75</v>
@@ -5951,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="25" t="s">
@@ -5964,7 +5964,7 @@
         <v>59</v>
       </c>
       <c r="K64" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L64" s="76"/>
     </row>
@@ -5973,7 +5973,7 @@
         <v>382</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>75</v>
@@ -5985,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G65" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="25" t="s">
@@ -5998,7 +5998,7 @@
         <v>60</v>
       </c>
       <c r="K65" s="127" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L65" s="76"/>
     </row>
@@ -6017,20 +6017,20 @@
         <v>1</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J66" s="118" t="s">
         <v>85</v>
       </c>
       <c r="K66" s="127" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L66" s="76"/>
     </row>
@@ -6051,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G67" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="25" t="s">
@@ -6064,7 +6064,7 @@
         <v>65</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L67" s="76"/>
     </row>
@@ -6073,7 +6073,7 @@
         <v>384</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>67</v>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G68" s="80" t="s">
         <v>299</v>
@@ -6098,7 +6098,7 @@
         <v>88</v>
       </c>
       <c r="K68" s="133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L68" s="76"/>
     </row>
@@ -6119,10 +6119,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G69" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="25" t="s">
@@ -6132,7 +6132,7 @@
         <v>89</v>
       </c>
       <c r="K69" s="133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L69" s="76"/>
     </row>
@@ -6141,7 +6141,7 @@
         <v>384</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>232</v>
@@ -6153,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G70" s="80" t="s">
         <v>298</v>
@@ -6166,7 +6166,7 @@
         <v>87</v>
       </c>
       <c r="K70" s="133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L70" s="76"/>
     </row>
@@ -6175,7 +6175,7 @@
         <v>384</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>232</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G71" s="80" t="s">
         <v>300</v>
@@ -6200,13 +6200,13 @@
         <v>231</v>
       </c>
       <c r="K71" s="133" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>71</v>
@@ -6218,10 +6218,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25" t="s">
@@ -6231,13 +6231,13 @@
         <v>93</v>
       </c>
       <c r="K72" s="130" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -6249,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>376</v>
@@ -6264,13 +6264,13 @@
         <v>92</v>
       </c>
       <c r="K73" s="130" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>71</v>
@@ -6282,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -6295,13 +6295,13 @@
         <v>94</v>
       </c>
       <c r="K74" s="130" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>67</v>
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>300</v>
@@ -6328,7 +6328,7 @@
         <v>90</v>
       </c>
       <c r="K75" s="130" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M75" s="5"/>
     </row>
@@ -9961,17 +9961,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="L53:L57"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="D53:D57"/>
     <mergeCell ref="F53:F57"/>
     <mergeCell ref="E53:E57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="L53:L57"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E9 E14:E18 E11 E51:E53 E26 E31:E49 E58:E71">
     <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
@@ -10139,7 +10139,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -10176,14 +10176,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10206,26 +10206,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="121" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10234,23 +10234,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10262,23 +10262,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10290,25 +10290,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="83" t="s">
         <v>440</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>441</v>
       </c>
       <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -10321,15 +10321,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K8" s="165"/>
     </row>
@@ -10364,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
@@ -10393,10 +10393,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
@@ -10409,7 +10409,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
@@ -10422,19 +10422,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="J12" s="28" t="s">
         <v>508</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>509</v>
       </c>
       <c r="K12" s="28"/>
     </row>
@@ -10518,7 +10518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4F01CC-1CF8-451A-99D2-028F600AEE46}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -10569,7 +10569,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -10608,14 +10608,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10639,27 +10639,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
       <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="121" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10668,24 +10668,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
       <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10697,24 +10697,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
       <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10726,26 +10726,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="83" t="s">
         <v>440</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>441</v>
       </c>
       <c r="K7" s="127"/>
       <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="168" t="s">
@@ -10758,24 +10758,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -10788,15 +10788,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -10833,17 +10833,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J11" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K11" s="130"/>
     </row>
@@ -10862,17 +10862,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J12" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K12" s="130"/>
     </row>
@@ -10908,10 +10908,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="91" t="s">
@@ -10921,7 +10921,7 @@
         <v>223</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>303</v>
@@ -10954,7 +10954,7 @@
         <v>179</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10972,10 +10972,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="91" t="s">
@@ -10985,7 +10985,7 @@
         <v>195</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11003,10 +11003,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="91" t="s">
@@ -11016,7 +11016,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -11035,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="91" t="s">
@@ -11048,14 +11048,14 @@
         <v>54</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>67</v>
@@ -11067,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>12</v>
@@ -11082,14 +11082,14 @@
         <v>52</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L19" s="76"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>225</v>
@@ -11101,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -11112,14 +11112,14 @@
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>72</v>
@@ -11131,10 +11131,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="91" t="s">
@@ -11144,14 +11144,14 @@
         <v>55</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>72</v>
@@ -11163,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -11176,14 +11176,14 @@
         <v>56</v>
       </c>
       <c r="K22" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>227</v>
@@ -11195,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="91" t="s">
@@ -11208,7 +11208,7 @@
         <v>226</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L23" s="76"/>
     </row>
@@ -11227,10 +11227,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="105" t="s">
@@ -11240,12 +11240,12 @@
         <v>91</v>
       </c>
       <c r="K24" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>71</v>
@@ -11257,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
@@ -11270,13 +11270,13 @@
         <v>93</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M25" s="140"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>67</v>
@@ -11288,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>376</v>
@@ -11303,13 +11303,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M26" s="140"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -11321,10 +11321,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -11334,13 +11334,13 @@
         <v>94</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M27" s="140"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>67</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>300</v>
@@ -11367,13 +11367,13 @@
         <v>90</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="40" t="s">
@@ -11386,20 +11386,20 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G29" s="107" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>304</v>
@@ -11431,7 +11431,7 @@
         <v>181</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>305</v>
@@ -11463,7 +11463,7 @@
         <v>182</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>306</v>
@@ -11495,7 +11495,7 @@
         <v>183</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -11512,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>307</v>
@@ -11527,7 +11527,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -11544,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>308</v>
@@ -11559,7 +11559,7 @@
         <v>185</v>
       </c>
       <c r="K34" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>309</v>
@@ -11591,7 +11591,7 @@
         <v>186</v>
       </c>
       <c r="K35" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -11608,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>310</v>
@@ -11623,7 +11623,7 @@
         <v>187</v>
       </c>
       <c r="K36" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -11640,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>311</v>
@@ -11655,7 +11655,7 @@
         <v>188</v>
       </c>
       <c r="K37" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -11672,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>312</v>
@@ -11687,7 +11687,7 @@
         <v>189</v>
       </c>
       <c r="K38" s="145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -11704,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>281</v>
@@ -11719,7 +11719,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>313</v>
@@ -11769,12 +11769,12 @@
         <v>191</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B42" s="87"/>
       <c r="C42" s="47"/>
@@ -11785,22 +11785,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="25"/>
       <c r="I42" s="103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K42" s="130"/>
     </row>
     <row r="43" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>67</v>
@@ -11812,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>315</v>
@@ -11827,14 +11827,14 @@
         <v>176</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L43" s="77"/>
     </row>
     <row r="44" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>71</v>
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="25"/>
@@ -11857,13 +11857,13 @@
         <v>177</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="87" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>71</v>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G45" s="49"/>
       <c r="H45" s="25"/>
@@ -11886,12 +11886,12 @@
         <v>178</v>
       </c>
       <c r="K45" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="47" t="s">
@@ -11904,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>314</v>
@@ -11919,12 +11919,12 @@
         <v>192</v>
       </c>
       <c r="K46" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="47" t="s">
@@ -11937,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -11948,12 +11948,12 @@
         <v>193</v>
       </c>
       <c r="K47" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="47" t="s">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -11977,7 +11977,7 @@
         <v>194</v>
       </c>
       <c r="K48" s="145" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -12100,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638EC13-446E-4F6B-AFBD-5EC8594B64BB}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12151,7 +12151,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -12188,20 +12188,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="153" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -12219,26 +12219,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>24</v>
@@ -12250,16 +12250,16 @@
       <c r="G5" s="97"/>
       <c r="H5" s="39"/>
       <c r="I5" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -12271,23 +12271,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -12299,27 +12299,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>441</v>
-      </c>
       <c r="K7" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -12332,24 +12332,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -12362,15 +12362,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -12406,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="18"/>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="25" t="s">
@@ -12449,10 +12449,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18"/>
@@ -12477,20 +12477,20 @@
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -12510,17 +12510,17 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -12541,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="18" t="s">
@@ -12551,13 +12551,13 @@
         <v>368</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>64</v>
@@ -12572,17 +12572,17 @@
         <v>4</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K17" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -12603,7 +12603,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="18" t="s">
@@ -12613,7 +12613,7 @@
         <v>369</v>
       </c>
       <c r="K18" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -12634,7 +12634,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="18" t="s">
@@ -12644,15 +12644,15 @@
         <v>131</v>
       </c>
       <c r="K19" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>64</v>
@@ -12667,14 +12667,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="16"/>
@@ -12694,10 +12694,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="18" t="s">
@@ -12707,15 +12707,15 @@
         <v>99</v>
       </c>
       <c r="K21" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="26" t="s">
@@ -12728,10 +12728,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -12741,7 +12741,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>27</v>
@@ -12753,24 +12753,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G23" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K23" s="162"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>27</v>
@@ -12782,27 +12782,27 @@
         <v>1</v>
       </c>
       <c r="F24" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>27</v>
@@ -12814,24 +12814,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G25" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K25" s="162"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>27</v>
@@ -12843,23 +12843,23 @@
         <v>1</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G26" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K26" s="162"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="26"/>
@@ -12870,10 +12870,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="18"/>
@@ -12895,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>236</v>
@@ -12910,10 +12910,10 @@
         <v>101</v>
       </c>
       <c r="K28" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -12931,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>237</v>
@@ -12946,7 +12946,7 @@
         <v>102</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>374</v>
@@ -12979,10 +12979,10 @@
         <v>103</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -13000,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="18" t="s">
@@ -13013,13 +13013,13 @@
         <v>104</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>67</v>
@@ -13031,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>260</v>
@@ -13046,10 +13046,10 @@
         <v>132</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13067,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G33" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="18" t="s">
@@ -13080,7 +13080,7 @@
         <v>85</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -13100,10 +13100,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="18" t="s">
@@ -13113,7 +13113,7 @@
         <v>86</v>
       </c>
       <c r="K34" s="146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -13131,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>375</v>
@@ -13146,7 +13146,7 @@
         <v>87</v>
       </c>
       <c r="K35" s="146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -13166,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>299</v>
@@ -13181,7 +13181,7 @@
         <v>88</v>
       </c>
       <c r="K36" s="146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -13201,10 +13201,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G37" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="18" t="s">
@@ -13214,7 +13214,7 @@
         <v>89</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>300</v>
@@ -13249,7 +13249,7 @@
         <v>90</v>
       </c>
       <c r="K38" s="146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="130" x14ac:dyDescent="0.35">
@@ -13269,10 +13269,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G39" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="18" t="s">
@@ -13282,15 +13282,15 @@
         <v>91</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>431</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>432</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>67</v>
@@ -13302,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>376</v>
@@ -13315,7 +13315,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -13323,7 +13323,7 @@
         <v>363</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>71</v>
@@ -13335,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="18" t="s">
@@ -13348,7 +13348,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -13356,7 +13356,7 @@
         <v>363</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>71</v>
@@ -13368,10 +13368,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="18" t="s">
@@ -13381,15 +13381,15 @@
         <v>91</v>
       </c>
       <c r="K42" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>67</v>
@@ -13401,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>300</v>
@@ -13416,7 +13416,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="52" x14ac:dyDescent="0.35">
@@ -13434,26 +13434,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="110" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>71</v>
@@ -13465,10 +13465,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="18" t="s">
@@ -13478,13 +13478,13 @@
         <v>404</v>
       </c>
       <c r="K45" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>71</v>
@@ -13496,26 +13496,26 @@
         <v>1</v>
       </c>
       <c r="F46" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G46" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="108" t="s">
-        <v>405</v>
+        <v>580</v>
       </c>
       <c r="K46" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -13523,22 +13523,22 @@
         <v>1</v>
       </c>
       <c r="F47" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G47" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="18"/>
       <c r="J47" s="108"/>
       <c r="K47" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>71</v>
@@ -13550,10 +13550,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="18" t="s">
@@ -13563,13 +13563,13 @@
         <v>397</v>
       </c>
       <c r="K48" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>71</v>
@@ -13581,10 +13581,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G49" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="18" t="s">
@@ -13594,13 +13594,13 @@
         <v>398</v>
       </c>
       <c r="K49" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>71</v>
@@ -13612,10 +13612,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G50" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="18" t="s">
@@ -13625,13 +13625,13 @@
         <v>399</v>
       </c>
       <c r="K50" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>71</v>
@@ -13643,26 +13643,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G51" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K51" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>67</v>
@@ -13674,10 +13674,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G52" s="120" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>12</v>
@@ -13689,13 +13689,13 @@
         <v>400</v>
       </c>
       <c r="K52" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>71</v>
@@ -13707,10 +13707,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G53" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="18" t="s">
@@ -13720,13 +13720,13 @@
         <v>401</v>
       </c>
       <c r="K53" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>71</v>
@@ -13738,10 +13738,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G54" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="18" t="s">
@@ -13751,13 +13751,13 @@
         <v>402</v>
       </c>
       <c r="K54" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>71</v>
@@ -13769,10 +13769,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G55" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="18" t="s">
@@ -13782,7 +13782,7 @@
         <v>403</v>
       </c>
       <c r="K55" s="150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
@@ -13800,10 +13800,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="25" t="s">
@@ -13817,7 +13817,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>71</v>
@@ -13829,10 +13829,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G57" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25" t="s">
@@ -13846,7 +13846,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>67</v>
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>376</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>71</v>
@@ -13889,10 +13889,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G59" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25" t="s">
@@ -13906,7 +13906,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>67</v>
@@ -13918,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>300</v>
@@ -13965,10 +13965,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
@@ -13981,7 +13981,7 @@
     </row>
     <row r="63" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B63" s="87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>67</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>381</v>
@@ -14008,12 +14008,12 @@
         <v>114</v>
       </c>
       <c r="K63" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B64" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>129</v>
@@ -14025,10 +14025,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25" t="s">
@@ -14038,12 +14038,12 @@
         <v>115</v>
       </c>
       <c r="K64" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B65" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>67</v>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>377</v>
@@ -14070,12 +14070,12 @@
         <v>116</v>
       </c>
       <c r="K65" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B66" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>72</v>
@@ -14087,10 +14087,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G66" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25" t="s">
@@ -14100,12 +14100,12 @@
         <v>117</v>
       </c>
       <c r="K66" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B67" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>67</v>
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>259</v>
@@ -14132,12 +14132,12 @@
         <v>118</v>
       </c>
       <c r="K67" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B68" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>71</v>
@@ -14149,10 +14149,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G68" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
@@ -14162,12 +14162,12 @@
         <v>119</v>
       </c>
       <c r="K68" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B69" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>70</v>
@@ -14179,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G69" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="25" t="s">
@@ -14192,7 +14192,7 @@
         <v>120</v>
       </c>
       <c r="K69" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>333</v>
@@ -14218,18 +14218,18 @@
         <v>12</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J70" s="110" t="s">
         <v>121</v>
       </c>
       <c r="K70" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B71" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>67</v>
@@ -14241,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>265</v>
@@ -14254,12 +14254,12 @@
         <v>32</v>
       </c>
       <c r="K71" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B72" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>67</v>
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>378</v>
@@ -14280,18 +14280,18 @@
         <v>12</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J72" s="110" t="s">
         <v>122</v>
       </c>
       <c r="K72" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B73" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -14303,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>379</v>
@@ -14318,12 +14318,12 @@
         <v>123</v>
       </c>
       <c r="K73" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B74" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>71</v>
@@ -14335,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -14348,12 +14348,12 @@
         <v>124</v>
       </c>
       <c r="K74" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B75" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>71</v>
@@ -14365,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G75" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25" t="s">
@@ -14378,7 +14378,7 @@
         <v>125</v>
       </c>
       <c r="K75" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14395,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>274</v>
@@ -14410,7 +14410,7 @@
         <v>34</v>
       </c>
       <c r="K76" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14428,10 +14428,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
@@ -14441,7 +14441,7 @@
         <v>126</v>
       </c>
       <c r="K77" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14459,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>259</v>
@@ -14474,7 +14474,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14492,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G79" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
@@ -14505,7 +14505,7 @@
         <v>113</v>
       </c>
       <c r="K79" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14522,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>248</v>
@@ -14534,102 +14534,102 @@
         <v>112</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K80" s="160"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="187"/>
-      <c r="B81" s="177" t="s">
+      <c r="B81" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="176" t="s">
+      <c r="C81" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="179" t="s">
+      <c r="D81" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="176">
         <v>1</v>
       </c>
       <c r="F81" s="188" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="181"/>
+      <c r="H81" s="176"/>
       <c r="I81" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="J81" s="176" t="s">
-        <v>523</v>
+      <c r="J81" s="177" t="s">
+        <v>522</v>
       </c>
       <c r="K81" s="189"/>
       <c r="L81" s="186"/>
     </row>
     <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="187"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="181"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="177"/>
+      <c r="D82" s="183"/>
+      <c r="E82" s="176"/>
       <c r="F82" s="188"/>
       <c r="G82" s="119" t="s">
-        <v>563</v>
-      </c>
-      <c r="H82" s="181"/>
+        <v>562</v>
+      </c>
+      <c r="H82" s="176"/>
       <c r="I82" s="185"/>
-      <c r="J82" s="176"/>
+      <c r="J82" s="177"/>
       <c r="K82" s="189"/>
       <c r="L82" s="186"/>
     </row>
     <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="187"/>
-      <c r="B83" s="177"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="183"/>
+      <c r="E83" s="176"/>
       <c r="F83" s="188"/>
       <c r="G83" s="79" t="s">
-        <v>439</v>
-      </c>
-      <c r="H83" s="181"/>
+        <v>438</v>
+      </c>
+      <c r="H83" s="176"/>
       <c r="I83" s="185"/>
-      <c r="J83" s="176"/>
+      <c r="J83" s="177"/>
       <c r="K83" s="189"/>
       <c r="L83" s="186"/>
     </row>
     <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="187"/>
-      <c r="B84" s="177"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="179"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="177"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="176"/>
       <c r="F84" s="188"/>
       <c r="G84" s="119" t="s">
-        <v>561</v>
-      </c>
-      <c r="H84" s="181"/>
+        <v>560</v>
+      </c>
+      <c r="H84" s="176"/>
       <c r="I84" s="185"/>
-      <c r="J84" s="176"/>
+      <c r="J84" s="177"/>
       <c r="K84" s="189"/>
       <c r="L84" s="186"/>
     </row>
     <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="187"/>
-      <c r="B85" s="177"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="181"/>
+      <c r="B85" s="181"/>
+      <c r="C85" s="177"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="176"/>
       <c r="F85" s="188"/>
       <c r="G85" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="H85" s="181"/>
+        <v>561</v>
+      </c>
+      <c r="H85" s="176"/>
       <c r="I85" s="185"/>
-      <c r="J85" s="176"/>
+      <c r="J85" s="177"/>
       <c r="K85" s="189"/>
       <c r="L85" s="186"/>
     </row>
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G86" s="51" t="s">
         <v>380</v>
@@ -14661,7 +14661,7 @@
         <v>111</v>
       </c>
       <c r="K86" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14679,10 +14679,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G87" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="18" t="s">
@@ -14692,7 +14692,7 @@
         <v>106</v>
       </c>
       <c r="K87" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14710,10 +14710,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="18" t="s">
@@ -14723,7 +14723,7 @@
         <v>107</v>
       </c>
       <c r="K88" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14741,10 +14741,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G89" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="18" t="s">
@@ -14754,7 +14754,7 @@
         <v>108</v>
       </c>
       <c r="K89" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G90" s="51" t="s">
         <v>253</v>
@@ -14785,7 +14785,7 @@
         <v>109</v>
       </c>
       <c r="K90" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G91" s="51" t="s">
         <v>255</v>
@@ -14818,12 +14818,12 @@
         <v>110</v>
       </c>
       <c r="K91" s="155" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="26"/>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="25"/>
@@ -14845,10 +14845,10 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>24</v>
@@ -14857,25 +14857,25 @@
         <v>1</v>
       </c>
       <c r="F93" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="25"/>
       <c r="I93" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J93" s="110" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K93" s="161"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>24</v>
@@ -14884,12 +14884,12 @@
         <v>1</v>
       </c>
       <c r="F94" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="25"/>
       <c r="I94" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J94" s="110" t="s">
         <v>46</v>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="95" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="26" t="s">
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G95" s="51" t="s">
         <v>283</v>
@@ -14920,22 +14920,22 @@
         <v>12</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J95" s="110" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>24</v>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="25"/>
@@ -14958,11 +14958,11 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>24</v>
@@ -14971,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="25"/>
@@ -14979,7 +14979,7 @@
         <v>98</v>
       </c>
       <c r="J97" s="110" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K97" s="161"/>
     </row>
@@ -14998,10 +14998,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G98" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -15011,12 +15011,12 @@
         <v>105</v>
       </c>
       <c r="K98" s="145" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="47" t="s">
@@ -15029,23 +15029,23 @@
         <v>1</v>
       </c>
       <c r="F99" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G99" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K99" s="162"/>
     </row>
     <row r="100" spans="1:11" ht="52" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="26" t="s">
@@ -15058,10 +15058,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G100" s="171" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H100" s="169"/>
       <c r="I100" s="18" t="s">
@@ -15071,7 +15071,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -15216,8 +15216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DE6E3-30D2-41B6-BBA2-2DDBEC0FD510}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I34" zoomScale="115" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15266,7 +15266,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -15303,17 +15303,17 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="5"/>
@@ -15333,26 +15333,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="121" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="121" t="s">
-        <v>529</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -15361,23 +15361,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -15389,23 +15389,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -15417,25 +15417,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="83" t="s">
         <v>440</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>441</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -15448,15 +15448,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
@@ -15479,7 +15479,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="25" t="s">
@@ -15492,10 +15492,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="25"/>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="25" t="s">
@@ -15529,7 +15529,7 @@
         <v>134</v>
       </c>
       <c r="K11" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15546,25 +15546,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J12" s="71" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
@@ -15577,10 +15577,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="25"/>
@@ -15589,7 +15589,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>27</v>
@@ -15601,17 +15601,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J14" s="108" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K14" s="164"/>
     </row>
@@ -15630,20 +15630,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15661,20 +15661,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J16" s="108" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="150" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15692,20 +15692,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>137</v>
       </c>
       <c r="K17" s="150" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -15723,25 +15723,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="150" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>71</v>
@@ -15753,10 +15753,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25" t="s">
@@ -15766,13 +15766,13 @@
         <v>93</v>
       </c>
       <c r="K19" s="130" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>51</v>
@@ -15784,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>376</v>
@@ -15799,13 +15799,13 @@
         <v>92</v>
       </c>
       <c r="K20" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>71</v>
@@ -15817,10 +15817,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
@@ -15830,13 +15830,13 @@
         <v>94</v>
       </c>
       <c r="K21" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>67</v>
@@ -15848,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>300</v>
@@ -15863,7 +15863,7 @@
         <v>90</v>
       </c>
       <c r="K22" s="130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -15882,25 +15882,25 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J23" s="71" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>71</v>
@@ -15912,25 +15912,25 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J24" s="108" t="s">
         <v>404</v>
       </c>
       <c r="K24" s="150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>71</v>
@@ -15942,25 +15942,25 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J25" s="108" t="s">
-        <v>405</v>
+        <v>580</v>
       </c>
       <c r="K25" s="150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>71</v>
@@ -15972,25 +15972,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G26" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J26" s="71" t="s">
         <v>397</v>
       </c>
       <c r="K26" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>71</v>
@@ -16002,25 +16002,25 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G27" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J27" s="71" t="s">
         <v>398</v>
       </c>
       <c r="K27" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>71</v>
@@ -16032,25 +16032,25 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J28" s="71" t="s">
         <v>399</v>
       </c>
       <c r="K28" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>71</v>
@@ -16062,25 +16062,25 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K29" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>67</v>
@@ -16092,25 +16092,25 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>351</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J30" s="71" t="s">
         <v>400</v>
       </c>
       <c r="K30" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>71</v>
@@ -16122,25 +16122,25 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G31" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31" s="69"/>
       <c r="I31" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J31" s="71" t="s">
         <v>401</v>
       </c>
       <c r="K31" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>71</v>
@@ -16152,25 +16152,25 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G32" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H32" s="69"/>
       <c r="I32" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J32" s="71" t="s">
         <v>402</v>
       </c>
       <c r="K32" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>71</v>
@@ -16182,20 +16182,20 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J33" s="71" t="s">
         <v>403</v>
       </c>
       <c r="K33" s="149" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16213,20 +16213,20 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G34" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J34" s="71" t="s">
         <v>140</v>
       </c>
       <c r="K34" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16246,20 +16246,20 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G35" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H35" s="69"/>
       <c r="I35" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J35" s="71" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K35" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16277,20 +16277,20 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H36" s="69"/>
       <c r="I36" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J36" s="71" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K36" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16298,7 +16298,7 @@
         <v>395</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>69</v>
@@ -16310,20 +16310,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G37" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H37" s="69"/>
       <c r="I37" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K37" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -16357,25 +16357,25 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>327</v>
       </c>
       <c r="H39" s="69"/>
       <c r="I39" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J39" s="71" t="s">
         <v>138</v>
       </c>
       <c r="K39" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="28" t="s">
@@ -16388,17 +16388,17 @@
         <v>1</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>242</v>
       </c>
       <c r="H40" s="69"/>
       <c r="I40" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K40" s="163"/>
     </row>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="69"/>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="J41" s="69"/>
       <c r="K41" s="149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16446,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>335</v>
@@ -16459,7 +16459,7 @@
         <v>144</v>
       </c>
       <c r="K42" s="149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16479,10 +16479,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G43" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H43" s="69"/>
       <c r="I43" s="71" t="s">
@@ -16492,7 +16492,7 @@
         <v>145</v>
       </c>
       <c r="K43" s="149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16510,10 +16510,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H44" s="69"/>
       <c r="I44" s="71" t="s">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="J44" s="69"/>
       <c r="K44" s="149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>328</v>
@@ -16552,7 +16552,7 @@
         <v>162</v>
       </c>
       <c r="K45" s="149" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -16572,10 +16572,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G46" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="71" t="s">
@@ -16585,7 +16585,7 @@
         <v>163</v>
       </c>
       <c r="K46" s="152" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -16603,10 +16603,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H47" s="69"/>
       <c r="I47" s="71" t="s">
@@ -16614,7 +16614,7 @@
       </c>
       <c r="J47" s="69"/>
       <c r="K47" s="152" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16634,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>333</v>
@@ -16647,7 +16647,7 @@
         <v>121</v>
       </c>
       <c r="K48" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16667,10 +16667,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H49" s="69"/>
       <c r="I49" s="71" t="s">
@@ -16680,7 +16680,7 @@
         <v>147</v>
       </c>
       <c r="K49" s="149" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -16698,10 +16698,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G50" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H50" s="69"/>
       <c r="I50" s="71" t="s">
@@ -16727,7 +16727,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>334</v>
@@ -16740,7 +16740,7 @@
         <v>149</v>
       </c>
       <c r="K51" s="149" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16760,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>233</v>
@@ -16773,7 +16773,7 @@
         <v>151</v>
       </c>
       <c r="K52" s="149" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16793,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>234</v>
@@ -16806,7 +16806,7 @@
         <v>152</v>
       </c>
       <c r="K53" s="149" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L53" s="6"/>
     </row>
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>357</v>
@@ -16840,7 +16840,7 @@
         <v>153</v>
       </c>
       <c r="K54" s="152" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
@@ -16860,10 +16860,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G55" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H55" s="69"/>
       <c r="I55" s="71" t="s">
@@ -16873,7 +16873,7 @@
         <v>154</v>
       </c>
       <c r="K55" s="152" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>352</v>
@@ -16906,7 +16906,7 @@
         <v>155</v>
       </c>
       <c r="K56" s="152" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
@@ -16926,7 +16926,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>353</v>
@@ -16939,7 +16939,7 @@
         <v>156</v>
       </c>
       <c r="K57" s="152" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16959,10 +16959,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H58" s="69"/>
       <c r="I58" s="71" t="s">
@@ -16972,7 +16972,7 @@
         <v>157</v>
       </c>
       <c r="K58" s="152" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
@@ -16992,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>354</v>
@@ -17005,7 +17005,7 @@
         <v>158</v>
       </c>
       <c r="K59" s="152" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>355</v>
@@ -17038,7 +17038,7 @@
         <v>159</v>
       </c>
       <c r="K60" s="152" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -17058,7 +17058,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>356</v>
@@ -17071,7 +17071,7 @@
         <v>160</v>
       </c>
       <c r="K61" s="152" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/input/images/mappingFHIR_ROR_ME3-0.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Réalisation\Conseil\ASIP\ANS-006 Contrat cadre CI SIS 2021\Projets\ANS-006-61_ROR_WS_2\Production\03 - Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv-my.sharepoint.com/personal/sylvain_demey_esante_gouv_fr/Documents/Documents/GitHub/IG-fhir-repertoire-offre-ressources-sante/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE68151F-DDD3-475B-9DBD-B830D521984A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4A3248EC-191E-49A5-BC8B-B29775C59F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E55C5C9-0B57-4C40-8734-45B86F6693C3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="581">
   <si>
     <t>FHIR path</t>
   </si>
@@ -1230,18 +1230,9 @@
     <t xml:space="preserve">                         </t>
   </si>
   <si>
-    <t xml:space="preserve">      extension:reliablePosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     extension:geodesicSystem</t>
-  </si>
-  <si>
     <t xml:space="preserve">              </t>
   </si>
   <si>
-    <t xml:space="preserve">             </t>
-  </si>
-  <si>
     <t>adresse/pointRemise</t>
   </si>
   <si>
@@ -1266,18 +1257,12 @@
     <t>adresse/codePostal</t>
   </si>
   <si>
-    <t>adresse/localité</t>
-  </si>
-  <si>
     <t>coordonneeGeographique/latitude</t>
   </si>
   <si>
     <t>coordonneeGeographique/longitude</t>
   </si>
   <si>
-    <t>coordonneeGeographique/systemeGeodesique</t>
-  </si>
-  <si>
     <t>coordonneeGeographique/coordonneesFiables</t>
   </si>
   <si>
@@ -1630,9 +1615,6 @@
   </si>
   <si>
     <t>TarifAccueilDeJour+TarifAidesHumaines+ForfaitSocleHebergement+TarifPortageRepas</t>
-  </si>
-  <si>
-    <t>RORGeolocationLocation</t>
   </si>
   <si>
     <t>RORCommuneCog</t>
@@ -1839,16 +1821,10 @@
     <t>Cf. boiteLettreMSS</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>RORMetaComment (extension)</t>
   </si>
   <si>
     <t>RORMetaCreationDate (extension)</t>
-  </si>
-  <si>
-    <t>ROERMetaCreationDate (extension)</t>
   </si>
   <si>
     <t>JDV-J249-TerritoireSante-ROR</t>
@@ -1907,6 +1883,12 @@
   </si>
   <si>
     <t>OIName</t>
+  </si>
+  <si>
+    <t>RORCoordinateReliability</t>
+  </si>
+  <si>
+    <t>adresse/localite</t>
   </si>
 </sst>
 </file>
@@ -3987,13 +3969,13 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="173" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B14" s="173"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B15" s="93"/>
     </row>
@@ -4002,7 +3984,7 @@
         <v>44981</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4040,9 +4022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29B823-4189-4F92-8E84-323E184E5AA4}">
   <dimension ref="A1:M354"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53:L57"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4092,7 +4074,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L1" s="101" t="s">
         <v>1</v>
@@ -4129,20 +4111,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="157" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -4161,24 +4143,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -4187,23 +4169,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -4215,23 +4197,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -4243,25 +4225,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -4274,27 +4256,27 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -4303,15 +4285,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
     </row>
@@ -4346,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>68</v>
@@ -4376,17 +4358,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K12" s="128"/>
       <c r="L12" s="76"/>
@@ -4422,20 +4404,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J14" s="83" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L14" s="76"/>
     </row>
@@ -4454,20 +4436,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L15" s="76"/>
     </row>
@@ -4486,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>228</v>
@@ -4495,16 +4477,16 @@
         <v>12</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J16" s="83" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="52" x14ac:dyDescent="0.35">
@@ -4522,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>268</v>
@@ -4531,13 +4513,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J17" s="83" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -4556,20 +4538,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J18" s="50" t="s">
         <v>229</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L18" s="76"/>
     </row>
@@ -4587,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="91" t="s">
@@ -4600,7 +4582,7 @@
         <v>53</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L19" s="76"/>
     </row>
@@ -4618,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -4631,13 +4613,13 @@
         <v>54</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>67</v>
@@ -4649,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>12</v>
@@ -4664,13 +4646,13 @@
         <v>52</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C22" s="88" t="s">
         <v>225</v>
@@ -4682,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -4693,13 +4675,13 @@
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>72</v>
@@ -4711,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="91" t="s">
@@ -4724,13 +4706,13 @@
         <v>55</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>72</v>
@@ -4742,10 +4724,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="91" t="s">
@@ -4755,13 +4737,13 @@
         <v>56</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>227</v>
@@ -4773,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H25" s="69"/>
       <c r="I25" s="91" t="s">
@@ -4786,7 +4768,7 @@
         <v>226</v>
       </c>
       <c r="K25" s="127" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L25" s="76"/>
     </row>
@@ -4805,26 +4787,26 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G26" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>166</v>
       </c>
       <c r="K26" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -4836,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -4849,13 +4831,13 @@
         <v>93</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>67</v>
@@ -4867,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>376</v>
@@ -4882,13 +4864,13 @@
         <v>92</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>71</v>
@@ -4900,10 +4882,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25" t="s">
@@ -4913,13 +4895,13 @@
         <v>94</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>67</v>
@@ -4931,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>300</v>
@@ -4946,7 +4928,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="130" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -4963,20 +4945,20 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G31" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J31" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K31" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L31" s="76"/>
     </row>
@@ -4995,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>265</v>
@@ -5004,13 +4986,13 @@
         <v>12</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J32" s="83" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L32" s="76"/>
     </row>
@@ -5029,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>266</v>
@@ -5038,13 +5020,13 @@
         <v>12</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J33" s="83" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L33" s="76"/>
     </row>
@@ -5063,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G34" s="79" t="s">
         <v>267</v>
@@ -5072,13 +5054,13 @@
         <v>12</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K34" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L34" s="76"/>
     </row>
@@ -5097,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G35" s="79" t="s">
         <v>274</v>
@@ -5106,13 +5088,13 @@
         <v>12</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J35" s="83" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L35" s="76"/>
     </row>
@@ -5131,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G36" s="79" t="s">
         <v>275</v>
@@ -5140,13 +5122,13 @@
         <v>12</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="127" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L36" s="76"/>
     </row>
@@ -5165,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G37" s="79" t="s">
         <v>275</v>
@@ -5174,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="127" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L37" s="76"/>
     </row>
@@ -5199,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>278</v>
@@ -5208,13 +5190,13 @@
         <v>12</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L38" s="76"/>
     </row>
@@ -5233,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G39" s="79" t="s">
         <v>279</v>
@@ -5242,13 +5224,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -5267,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G40" s="79" t="s">
         <v>280</v>
@@ -5276,13 +5258,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J40" s="83" t="s">
         <v>42</v>
       </c>
       <c r="K40" s="127" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L40" s="76"/>
     </row>
@@ -5301,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G41" s="79" t="s">
         <v>281</v>
@@ -5310,13 +5292,13 @@
         <v>12</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L41" s="76"/>
     </row>
@@ -5335,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G42" s="79" t="s">
         <v>282</v>
@@ -5344,13 +5326,13 @@
         <v>12</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J42" s="83" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L42" s="76"/>
     </row>
@@ -5369,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G43" s="79" t="s">
         <v>283</v>
@@ -5378,19 +5360,19 @@
         <v>12</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J43" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L43" s="76"/>
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="26" t="s">
@@ -5401,26 +5383,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K44" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>67</v>
@@ -5432,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G45" s="79" t="s">
         <v>284</v>
@@ -5447,13 +5429,13 @@
         <v>62</v>
       </c>
       <c r="K45" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L45" s="76"/>
     </row>
     <row r="46" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>67</v>
@@ -5465,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G46" s="79" t="s">
         <v>289</v>
@@ -5480,13 +5462,13 @@
         <v>63</v>
       </c>
       <c r="K46" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L46" s="76"/>
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="25" t="s">
@@ -5497,26 +5479,26 @@
         <v>1</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J47" s="100" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K47" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L47" s="76"/>
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B48" s="36" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>74</v>
@@ -5528,26 +5510,26 @@
         <v>1</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G48" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J48" s="83" t="s">
         <v>46</v>
       </c>
       <c r="K48" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L48" s="76"/>
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B49" s="33" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>74</v>
@@ -5559,20 +5541,20 @@
         <v>1</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J49" s="83" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L49" s="76"/>
     </row>
@@ -5607,26 +5589,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G51" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J51" s="84" t="s">
         <v>49</v>
       </c>
       <c r="K51" s="132" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L51" s="76"/>
     </row>
     <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>50</v>
@@ -5641,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G52" s="79" t="s">
         <v>248</v>
@@ -5650,13 +5632,13 @@
         <v>12</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>301</v>
       </c>
       <c r="K52" s="132" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L52" s="76"/>
     </row>
@@ -5677,20 +5659,20 @@
         <v>1</v>
       </c>
       <c r="F53" s="184" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>242</v>
       </c>
       <c r="H53" s="176"/>
       <c r="I53" s="177" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J53" s="178" t="s">
         <v>302</v>
       </c>
       <c r="K53" s="179" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L53" s="180"/>
     </row>
@@ -5702,7 +5684,7 @@
       <c r="E54" s="176"/>
       <c r="F54" s="184"/>
       <c r="G54" s="119" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H54" s="176"/>
       <c r="I54" s="177"/>
@@ -5718,7 +5700,7 @@
       <c r="E55" s="176"/>
       <c r="F55" s="184"/>
       <c r="G55" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H55" s="176"/>
       <c r="I55" s="177"/>
@@ -5734,7 +5716,7 @@
       <c r="E56" s="176"/>
       <c r="F56" s="184"/>
       <c r="G56" s="119" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H56" s="176"/>
       <c r="I56" s="177"/>
@@ -5750,7 +5732,7 @@
       <c r="E57" s="176"/>
       <c r="F57" s="184"/>
       <c r="G57" s="119" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H57" s="176"/>
       <c r="I57" s="177"/>
@@ -5773,20 +5755,20 @@
         <v>1</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J58" s="83" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="127" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L58" s="76"/>
     </row>
@@ -5805,20 +5787,20 @@
         <v>1</v>
       </c>
       <c r="F59" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G59" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J59" s="85" t="s">
         <v>39</v>
       </c>
       <c r="K59" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L59" s="76"/>
     </row>
@@ -5837,20 +5819,20 @@
         <v>1</v>
       </c>
       <c r="F60" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G60" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J60" s="83" t="s">
         <v>41</v>
       </c>
       <c r="K60" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L60" s="76"/>
     </row>
@@ -5869,14 +5851,14 @@
         <v>1</v>
       </c>
       <c r="F61" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G61" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J61" s="83" t="s">
         <v>48</v>
@@ -5899,20 +5881,20 @@
         <v>1</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G62" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J62" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K62" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L62" s="76"/>
     </row>
@@ -5921,7 +5903,7 @@
         <v>238</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>67</v>
@@ -5933,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G63" s="79" t="s">
         <v>290</v>
@@ -5948,7 +5930,7 @@
         <v>58</v>
       </c>
       <c r="K63" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L63" s="76"/>
     </row>
@@ -5957,7 +5939,7 @@
         <v>382</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>75</v>
@@ -5969,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="25" t="s">
@@ -5982,7 +5964,7 @@
         <v>59</v>
       </c>
       <c r="K64" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L64" s="76"/>
     </row>
@@ -5991,7 +5973,7 @@
         <v>382</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>75</v>
@@ -6003,10 +5985,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G65" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="25" t="s">
@@ -6016,7 +5998,7 @@
         <v>60</v>
       </c>
       <c r="K65" s="127" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L65" s="76"/>
     </row>
@@ -6035,20 +6017,20 @@
         <v>1</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="25" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J66" s="118" t="s">
         <v>85</v>
       </c>
       <c r="K66" s="127" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L66" s="76"/>
     </row>
@@ -6069,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G67" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="25" t="s">
@@ -6082,7 +6064,7 @@
         <v>65</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L67" s="76"/>
     </row>
@@ -6091,7 +6073,7 @@
         <v>384</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>67</v>
@@ -6103,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G68" s="80" t="s">
         <v>299</v>
@@ -6116,7 +6098,7 @@
         <v>88</v>
       </c>
       <c r="K68" s="133" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L68" s="76"/>
     </row>
@@ -6137,10 +6119,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G69" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="25" t="s">
@@ -6150,7 +6132,7 @@
         <v>89</v>
       </c>
       <c r="K69" s="133" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L69" s="76"/>
     </row>
@@ -6159,7 +6141,7 @@
         <v>384</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>232</v>
@@ -6171,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G70" s="80" t="s">
         <v>298</v>
@@ -6184,7 +6166,7 @@
         <v>87</v>
       </c>
       <c r="K70" s="133" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L70" s="76"/>
     </row>
@@ -6193,7 +6175,7 @@
         <v>384</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>232</v>
@@ -6205,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G71" s="80" t="s">
         <v>300</v>
@@ -6218,13 +6200,13 @@
         <v>231</v>
       </c>
       <c r="K71" s="133" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>71</v>
@@ -6236,10 +6218,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H72" s="25"/>
       <c r="I72" s="25" t="s">
@@ -6249,13 +6231,13 @@
         <v>93</v>
       </c>
       <c r="K72" s="130" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -6267,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>376</v>
@@ -6282,13 +6264,13 @@
         <v>92</v>
       </c>
       <c r="K73" s="130" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>71</v>
@@ -6300,10 +6282,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -6313,13 +6295,13 @@
         <v>94</v>
       </c>
       <c r="K74" s="130" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M74" s="5"/>
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>67</v>
@@ -6331,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>300</v>
@@ -6346,7 +6328,7 @@
         <v>90</v>
       </c>
       <c r="K75" s="130" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M75" s="5"/>
     </row>
@@ -10108,7 +10090,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10157,7 +10139,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -10194,14 +10176,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10224,26 +10206,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10252,23 +10234,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10280,23 +10262,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10308,29 +10290,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>7</v>
@@ -10339,15 +10321,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K8" s="165"/>
     </row>
@@ -10382,10 +10364,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
@@ -10411,10 +10393,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
@@ -10427,7 +10409,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
@@ -10440,19 +10422,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K12" s="28"/>
     </row>
@@ -10536,8 +10518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4F01CC-1CF8-451A-99D2-028F600AEE46}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10587,7 +10569,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -10626,14 +10608,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10657,27 +10639,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
       <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10686,24 +10668,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
       <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10715,24 +10697,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
       <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10744,26 +10726,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K7" s="127"/>
       <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="168" t="s">
@@ -10776,28 +10758,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="168" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -10806,15 +10788,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -10851,17 +10833,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J11" s="122" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K11" s="130"/>
     </row>
@@ -10880,17 +10862,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J12" s="122" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K12" s="130"/>
     </row>
@@ -10926,10 +10908,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="91" t="s">
@@ -10939,7 +10921,7 @@
         <v>223</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10957,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>303</v>
@@ -10972,7 +10954,7 @@
         <v>179</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10990,10 +10972,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="91" t="s">
@@ -11003,7 +10985,7 @@
         <v>195</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11021,10 +11003,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="91" t="s">
@@ -11034,7 +11016,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -11053,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="91" t="s">
@@ -11066,14 +11048,14 @@
         <v>54</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="40" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>67</v>
@@ -11085,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>12</v>
@@ -11100,14 +11082,14 @@
         <v>52</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="40" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>225</v>
@@ -11119,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -11130,14 +11112,14 @@
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="40" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>72</v>
@@ -11149,10 +11131,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="91" t="s">
@@ -11162,14 +11144,14 @@
         <v>55</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>72</v>
@@ -11181,10 +11163,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -11194,14 +11176,14 @@
         <v>56</v>
       </c>
       <c r="K22" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>227</v>
@@ -11213,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="91" t="s">
@@ -11226,7 +11208,7 @@
         <v>226</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L23" s="76"/>
     </row>
@@ -11245,10 +11227,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="105" t="s">
@@ -11258,12 +11240,12 @@
         <v>91</v>
       </c>
       <c r="K24" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>71</v>
@@ -11275,10 +11257,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
@@ -11288,13 +11270,13 @@
         <v>93</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M25" s="140"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>67</v>
@@ -11306,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>376</v>
@@ -11321,13 +11303,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M26" s="140"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -11339,10 +11321,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -11352,13 +11334,13 @@
         <v>94</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M27" s="140"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>67</v>
@@ -11370,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>300</v>
@@ -11385,13 +11367,13 @@
         <v>90</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="40" t="s">
@@ -11404,20 +11386,20 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G29" s="107" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="103" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -11434,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>304</v>
@@ -11449,7 +11431,7 @@
         <v>181</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -11466,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>305</v>
@@ -11481,7 +11463,7 @@
         <v>182</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -11498,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>306</v>
@@ -11513,7 +11495,7 @@
         <v>183</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -11530,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>307</v>
@@ -11545,7 +11527,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -11562,7 +11544,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>308</v>
@@ -11577,7 +11559,7 @@
         <v>185</v>
       </c>
       <c r="K34" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -11594,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>309</v>
@@ -11609,7 +11591,7 @@
         <v>186</v>
       </c>
       <c r="K35" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -11626,7 +11608,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>310</v>
@@ -11641,7 +11623,7 @@
         <v>187</v>
       </c>
       <c r="K36" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -11658,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>311</v>
@@ -11673,7 +11655,7 @@
         <v>188</v>
       </c>
       <c r="K37" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -11690,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>312</v>
@@ -11705,7 +11687,7 @@
         <v>189</v>
       </c>
       <c r="K38" s="145" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -11722,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>281</v>
@@ -11737,7 +11719,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11772,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>313</v>
@@ -11787,12 +11769,12 @@
         <v>191</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B42" s="87"/>
       <c r="C42" s="47"/>
@@ -11803,22 +11785,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="25"/>
       <c r="I42" s="103" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K42" s="130"/>
     </row>
     <row r="43" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="87" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>67</v>
@@ -11830,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>315</v>
@@ -11845,14 +11827,14 @@
         <v>176</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L43" s="77"/>
     </row>
     <row r="44" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="87" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>71</v>
@@ -11864,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="25"/>
@@ -11875,13 +11857,13 @@
         <v>177</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="87" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>71</v>
@@ -11893,7 +11875,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G45" s="49"/>
       <c r="H45" s="25"/>
@@ -11904,12 +11886,12 @@
         <v>178</v>
       </c>
       <c r="K45" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="47" t="s">
@@ -11922,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>314</v>
@@ -11937,12 +11919,12 @@
         <v>192</v>
       </c>
       <c r="K46" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="47" t="s">
@@ -11955,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -11966,12 +11948,12 @@
         <v>193</v>
       </c>
       <c r="K47" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="47" t="s">
@@ -11984,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -11995,7 +11977,7 @@
         <v>194</v>
       </c>
       <c r="K48" s="145" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -12118,8 +12100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638EC13-446E-4F6B-AFBD-5EC8594B64BB}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12169,7 +12151,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -12206,20 +12188,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="153" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -12237,26 +12219,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>24</v>
@@ -12268,16 +12250,16 @@
       <c r="G5" s="97"/>
       <c r="H5" s="39"/>
       <c r="I5" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -12289,23 +12271,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -12317,27 +12299,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K7" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -12350,28 +12332,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
         <v>7</v>
@@ -12380,15 +12362,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -12424,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="18"/>
@@ -12454,7 +12436,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="25" t="s">
@@ -12467,10 +12449,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18"/>
@@ -12495,20 +12477,20 @@
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -12528,17 +12510,17 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -12559,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="18" t="s">
@@ -12569,13 +12551,13 @@
         <v>368</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>64</v>
@@ -12590,17 +12572,17 @@
         <v>4</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K17" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -12621,7 +12603,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="18" t="s">
@@ -12631,7 +12613,7 @@
         <v>369</v>
       </c>
       <c r="K18" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -12652,7 +12634,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="18" t="s">
@@ -12662,15 +12644,15 @@
         <v>131</v>
       </c>
       <c r="K19" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>64</v>
@@ -12685,14 +12667,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="18" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="16"/>
@@ -12712,10 +12694,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="18" t="s">
@@ -12725,15 +12707,15 @@
         <v>99</v>
       </c>
       <c r="K21" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="26" t="s">
@@ -12746,10 +12728,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -12759,7 +12741,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="19" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>27</v>
@@ -12771,24 +12753,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G23" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K23" s="162"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="19" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>27</v>
@@ -12800,27 +12782,27 @@
         <v>1</v>
       </c>
       <c r="F24" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>27</v>
@@ -12832,24 +12814,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G25" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K25" s="162"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>27</v>
@@ -12861,23 +12843,23 @@
         <v>1</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G26" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K26" s="162"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="26"/>
@@ -12888,10 +12870,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="18"/>
@@ -12913,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>236</v>
@@ -12928,10 +12910,10 @@
         <v>101</v>
       </c>
       <c r="K28" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -12949,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>237</v>
@@ -12964,7 +12946,7 @@
         <v>102</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -12982,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>374</v>
@@ -12997,10 +12979,10 @@
         <v>103</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -13018,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="18" t="s">
@@ -13031,13 +13013,13 @@
         <v>104</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="40" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>67</v>
@@ -13049,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>260</v>
@@ -13064,10 +13046,10 @@
         <v>132</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13085,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G33" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="18" t="s">
@@ -13098,7 +13080,7 @@
         <v>85</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -13118,10 +13100,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="18" t="s">
@@ -13131,7 +13113,7 @@
         <v>86</v>
       </c>
       <c r="K34" s="146" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -13149,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>375</v>
@@ -13164,7 +13146,7 @@
         <v>87</v>
       </c>
       <c r="K35" s="146" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -13184,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>299</v>
@@ -13199,7 +13181,7 @@
         <v>88</v>
       </c>
       <c r="K36" s="146" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -13219,10 +13201,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G37" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="18" t="s">
@@ -13232,7 +13214,7 @@
         <v>89</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -13252,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>300</v>
@@ -13267,7 +13249,7 @@
         <v>90</v>
       </c>
       <c r="K38" s="146" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="130" x14ac:dyDescent="0.35">
@@ -13287,10 +13269,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G39" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="18" t="s">
@@ -13300,15 +13282,15 @@
         <v>91</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>67</v>
@@ -13320,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>376</v>
@@ -13333,7 +13315,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="145" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -13341,7 +13323,7 @@
         <v>363</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>71</v>
@@ -13353,10 +13335,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="18" t="s">
@@ -13366,7 +13348,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -13374,7 +13356,7 @@
         <v>363</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>71</v>
@@ -13386,10 +13368,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="18" t="s">
@@ -13399,15 +13381,15 @@
         <v>91</v>
       </c>
       <c r="K42" s="145" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>67</v>
@@ -13419,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>300</v>
@@ -13434,7 +13416,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="52" x14ac:dyDescent="0.35">
@@ -13452,26 +13434,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="110" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45" s="22" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>71</v>
@@ -13483,26 +13465,26 @@
         <v>1</v>
       </c>
       <c r="F45" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J45" s="108" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K45" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>71</v>
@@ -13514,26 +13496,26 @@
         <v>1</v>
       </c>
       <c r="F46" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G46" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="108" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="K46" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -13541,22 +13523,22 @@
         <v>1</v>
       </c>
       <c r="F47" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G47" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="18"/>
       <c r="J47" s="108"/>
       <c r="K47" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>71</v>
@@ -13568,26 +13550,26 @@
         <v>1</v>
       </c>
       <c r="F48" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J48" s="71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K48" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>71</v>
@@ -13599,26 +13581,26 @@
         <v>1</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G49" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J49" s="71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K49" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>71</v>
@@ -13630,26 +13612,26 @@
         <v>1</v>
       </c>
       <c r="F50" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G50" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J50" s="71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K50" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>71</v>
@@ -13661,26 +13643,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G51" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K51" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>67</v>
@@ -13692,10 +13674,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G52" s="120" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>12</v>
@@ -13704,16 +13686,16 @@
         <v>98</v>
       </c>
       <c r="J52" s="71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K52" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>71</v>
@@ -13725,26 +13707,26 @@
         <v>1</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G53" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J53" s="71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K53" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>71</v>
@@ -13756,26 +13738,26 @@
         <v>1</v>
       </c>
       <c r="F54" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G54" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J54" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K54" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>71</v>
@@ -13787,20 +13769,20 @@
         <v>1</v>
       </c>
       <c r="F55" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G55" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J55" s="71" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K55" s="150" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
@@ -13818,10 +13800,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="25" t="s">
@@ -13835,7 +13817,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>71</v>
@@ -13847,10 +13829,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G57" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25" t="s">
@@ -13864,7 +13846,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>67</v>
@@ -13876,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>376</v>
@@ -13895,7 +13877,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>71</v>
@@ -13907,10 +13889,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G59" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25" t="s">
@@ -13924,7 +13906,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>67</v>
@@ -13936,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>300</v>
@@ -13983,10 +13965,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
@@ -13999,7 +13981,7 @@
     </row>
     <row r="63" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B63" s="87" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>67</v>
@@ -14011,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>381</v>
@@ -14026,12 +14008,12 @@
         <v>114</v>
       </c>
       <c r="K63" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B64" s="87" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>129</v>
@@ -14043,10 +14025,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25" t="s">
@@ -14056,12 +14038,12 @@
         <v>115</v>
       </c>
       <c r="K64" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B65" s="87" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>67</v>
@@ -14073,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>377</v>
@@ -14088,12 +14070,12 @@
         <v>116</v>
       </c>
       <c r="K65" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B66" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>72</v>
@@ -14105,10 +14087,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G66" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25" t="s">
@@ -14118,12 +14100,12 @@
         <v>117</v>
       </c>
       <c r="K66" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B67" s="38" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>67</v>
@@ -14135,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>259</v>
@@ -14150,12 +14132,12 @@
         <v>118</v>
       </c>
       <c r="K67" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B68" s="38" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>71</v>
@@ -14167,10 +14149,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G68" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
@@ -14180,12 +14162,12 @@
         <v>119</v>
       </c>
       <c r="K68" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B69" s="38" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>70</v>
@@ -14197,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G69" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="25" t="s">
@@ -14210,7 +14192,7 @@
         <v>120</v>
       </c>
       <c r="K69" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14227,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>333</v>
@@ -14236,18 +14218,18 @@
         <v>12</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J70" s="110" t="s">
         <v>121</v>
       </c>
       <c r="K70" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B71" s="38" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>67</v>
@@ -14259,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>265</v>
@@ -14272,12 +14254,12 @@
         <v>32</v>
       </c>
       <c r="K71" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B72" s="38" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>67</v>
@@ -14289,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>378</v>
@@ -14298,18 +14280,18 @@
         <v>12</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J72" s="110" t="s">
         <v>122</v>
       </c>
       <c r="K72" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B73" s="38" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
@@ -14321,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>379</v>
@@ -14336,12 +14318,12 @@
         <v>123</v>
       </c>
       <c r="K73" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B74" s="38" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>71</v>
@@ -14353,10 +14335,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -14366,12 +14348,12 @@
         <v>124</v>
       </c>
       <c r="K74" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B75" s="38" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>71</v>
@@ -14383,10 +14365,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G75" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25" t="s">
@@ -14396,7 +14378,7 @@
         <v>125</v>
       </c>
       <c r="K75" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14413,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>274</v>
@@ -14428,7 +14410,7 @@
         <v>34</v>
       </c>
       <c r="K76" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14446,10 +14428,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
@@ -14459,7 +14441,7 @@
         <v>126</v>
       </c>
       <c r="K77" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14477,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>259</v>
@@ -14492,7 +14474,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14510,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G79" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
@@ -14523,7 +14505,7 @@
         <v>113</v>
       </c>
       <c r="K79" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14540,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>248</v>
@@ -14552,7 +14534,7 @@
         <v>112</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K80" s="160"/>
       <c r="L80" s="5"/>
@@ -14572,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="188" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>242</v>
@@ -14582,7 +14564,7 @@
         <v>112</v>
       </c>
       <c r="J81" s="177" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K81" s="189"/>
       <c r="L81" s="186"/>
@@ -14595,7 +14577,7 @@
       <c r="E82" s="176"/>
       <c r="F82" s="188"/>
       <c r="G82" s="119" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H82" s="176"/>
       <c r="I82" s="185"/>
@@ -14611,7 +14593,7 @@
       <c r="E83" s="176"/>
       <c r="F83" s="188"/>
       <c r="G83" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H83" s="176"/>
       <c r="I83" s="185"/>
@@ -14627,7 +14609,7 @@
       <c r="E84" s="176"/>
       <c r="F84" s="188"/>
       <c r="G84" s="119" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H84" s="176"/>
       <c r="I84" s="185"/>
@@ -14643,7 +14625,7 @@
       <c r="E85" s="176"/>
       <c r="F85" s="188"/>
       <c r="G85" s="119" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H85" s="176"/>
       <c r="I85" s="185"/>
@@ -14666,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G86" s="51" t="s">
         <v>380</v>
@@ -14679,7 +14661,7 @@
         <v>111</v>
       </c>
       <c r="K86" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14697,10 +14679,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G87" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="18" t="s">
@@ -14710,7 +14692,7 @@
         <v>106</v>
       </c>
       <c r="K87" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14728,10 +14710,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="18" t="s">
@@ -14741,7 +14723,7 @@
         <v>107</v>
       </c>
       <c r="K88" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14759,10 +14741,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G89" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="18" t="s">
@@ -14772,7 +14754,7 @@
         <v>108</v>
       </c>
       <c r="K89" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14790,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G90" s="51" t="s">
         <v>253</v>
@@ -14803,7 +14785,7 @@
         <v>109</v>
       </c>
       <c r="K90" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -14821,7 +14803,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G91" s="51" t="s">
         <v>255</v>
@@ -14836,12 +14818,12 @@
         <v>110</v>
       </c>
       <c r="K91" s="155" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="36" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="26"/>
@@ -14852,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="25"/>
@@ -14863,10 +14845,10 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>24</v>
@@ -14875,25 +14857,25 @@
         <v>1</v>
       </c>
       <c r="F93" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="25"/>
       <c r="I93" s="18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="J93" s="110" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K93" s="161"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>24</v>
@@ -14902,12 +14884,12 @@
         <v>1</v>
       </c>
       <c r="F94" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="25"/>
       <c r="I94" s="18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J94" s="110" t="s">
         <v>46</v>
@@ -14916,7 +14898,7 @@
     </row>
     <row r="95" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="36" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="26" t="s">
@@ -14929,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G95" s="51" t="s">
         <v>283</v>
@@ -14938,22 +14920,22 @@
         <v>12</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J95" s="110" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="36" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>24</v>
@@ -14962,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="25"/>
@@ -14976,11 +14958,11 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="36" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>24</v>
@@ -14989,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="25"/>
@@ -14997,7 +14979,7 @@
         <v>98</v>
       </c>
       <c r="J97" s="110" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K97" s="161"/>
     </row>
@@ -15016,10 +14998,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G98" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -15029,12 +15011,12 @@
         <v>105</v>
       </c>
       <c r="K98" s="145" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="47" t="s">
@@ -15047,23 +15029,23 @@
         <v>1</v>
       </c>
       <c r="F99" s="113" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G99" s="114" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K99" s="162"/>
     </row>
     <row r="100" spans="1:11" ht="52" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="26" t="s">
@@ -15076,10 +15058,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="172" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G100" s="171" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H100" s="169"/>
       <c r="I100" s="18" t="s">
@@ -15089,7 +15071,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="145" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -15232,10 +15214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DE6E3-30D2-41B6-BBA2-2DDBEC0FD510}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15284,7 +15266,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -15321,17 +15303,17 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="5"/>
@@ -15351,26 +15333,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -15379,23 +15361,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -15407,23 +15389,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -15435,29 +15417,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
-        <v>564</v>
+        <v>74</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>7</v>
@@ -15466,15 +15448,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
@@ -15497,7 +15479,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="25" t="s">
@@ -15510,10 +15492,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="25"/>
@@ -15534,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="25" t="s">
@@ -15547,7 +15529,7 @@
         <v>134</v>
       </c>
       <c r="K11" s="149" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15564,25 +15546,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J12" s="71" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="149" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
@@ -15595,10 +15577,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="25"/>
@@ -15607,7 +15589,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>27</v>
@@ -15619,17 +15601,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J14" s="108" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K14" s="164"/>
     </row>
@@ -15648,20 +15630,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15679,20 +15661,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J16" s="108" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="150" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15710,20 +15692,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>137</v>
       </c>
       <c r="K17" s="150" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -15741,25 +15723,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="150" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>71</v>
@@ -15771,10 +15753,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25" t="s">
@@ -15784,13 +15766,13 @@
         <v>93</v>
       </c>
       <c r="K19" s="130" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>51</v>
@@ -15802,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>376</v>
@@ -15817,13 +15799,13 @@
         <v>92</v>
       </c>
       <c r="K20" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>71</v>
@@ -15835,10 +15817,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
@@ -15848,13 +15830,13 @@
         <v>94</v>
       </c>
       <c r="K21" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>67</v>
@@ -15866,7 +15848,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>300</v>
@@ -15881,7 +15863,7 @@
         <v>90</v>
       </c>
       <c r="K22" s="130" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -15900,25 +15882,25 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="25" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J23" s="71" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="149" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="22" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>71</v>
@@ -15930,25 +15912,25 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J24" s="108" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K24" s="150" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>71</v>
@@ -15960,25 +15942,25 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J25" s="108" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="K25" s="150" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>71</v>
@@ -15990,25 +15972,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G26" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K26" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>71</v>
@@ -16020,25 +16002,25 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G27" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K27" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>71</v>
@@ -16050,25 +16032,25 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J28" s="71" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K28" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>71</v>
@@ -16080,25 +16062,25 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K29" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>67</v>
@@ -16110,25 +16092,25 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>351</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K30" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>71</v>
@@ -16140,25 +16122,25 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G31" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H31" s="69"/>
       <c r="I31" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K31" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>71</v>
@@ -16170,25 +16152,25 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G32" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H32" s="69"/>
       <c r="I32" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J32" s="71" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K32" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>71</v>
@@ -16200,20 +16182,20 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K33" s="149" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16231,25 +16213,25 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G34" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J34" s="71" t="s">
         <v>140</v>
       </c>
       <c r="K34" s="149" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>141</v>
@@ -16264,20 +16246,20 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G35" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H35" s="69"/>
       <c r="I35" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J35" s="71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K35" s="149" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16295,91 +16277,78 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G36" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H36" s="69"/>
       <c r="I36" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J36" s="71" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K36" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
+        <v>579</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="E37" s="39">
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G37" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H37" s="69"/>
       <c r="I37" s="169" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="149"/>
-    </row>
-    <row r="38" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1</v>
-      </c>
-      <c r="F38" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G38" s="97" t="s">
-        <v>449</v>
-      </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="169" t="s">
-        <v>576</v>
-      </c>
-      <c r="J38" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="K38" s="149" t="s">
-        <v>541</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="K37" s="149" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>396</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>24</v>
@@ -16388,75 +16357,86 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="H39" s="69"/>
-      <c r="I39" s="169" t="s">
-        <v>576</v>
+      <c r="I39" s="25" t="s">
+        <v>568</v>
       </c>
       <c r="J39" s="71" t="s">
-        <v>412</v>
+        <v>138</v>
       </c>
       <c r="K39" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="55"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>444</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="69"/>
+      <c r="I40" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="K40" s="163"/>
     </row>
     <row r="41" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="28" t="s">
-        <v>67</v>
+      <c r="A41" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E41" s="39">
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>327</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="G41" s="25"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="J41" s="71" t="s">
-        <v>138</v>
-      </c>
+      <c r="I41" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="69"/>
       <c r="K41" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="29" t="s">
@@ -16466,182 +16446,186 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="H42" s="69"/>
-      <c r="I42" s="25" t="s">
-        <v>576</v>
+      <c r="I42" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="J42" s="71" t="s">
-        <v>490</v>
-      </c>
-      <c r="K42" s="163"/>
+        <v>144</v>
+      </c>
+      <c r="K42" s="149" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B43" s="21"/>
+      <c r="A43" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>366</v>
+      </c>
       <c r="C43" s="27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E43" s="39">
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G43" s="25"/>
+        <v>444</v>
+      </c>
+      <c r="G43" s="97" t="s">
+        <v>444</v>
+      </c>
       <c r="H43" s="69"/>
       <c r="I43" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="69"/>
+      <c r="J43" s="71" t="s">
+        <v>145</v>
+      </c>
       <c r="K43" s="149" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>364</v>
-      </c>
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" s="50"/>
       <c r="C44" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E44" s="39">
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>335</v>
+        <v>444</v>
+      </c>
+      <c r="G44" s="97" t="s">
+        <v>444</v>
       </c>
       <c r="H44" s="69"/>
       <c r="I44" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="71" t="s">
-        <v>144</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J44" s="69"/>
       <c r="K44" s="149" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>366</v>
+      <c r="A45" s="33"/>
+      <c r="B45" s="40" t="s">
+        <v>330</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E45" s="39">
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G45" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>328</v>
       </c>
       <c r="H45" s="69"/>
       <c r="I45" s="71" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J45" s="71" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K45" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" s="50"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>332</v>
+      </c>
       <c r="C46" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E46" s="39">
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G46" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="69"/>
-      <c r="K46" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="40" t="s">
-        <v>330</v>
-      </c>
+      <c r="J46" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="152" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="27" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E47" s="39">
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>328</v>
+        <v>444</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>444</v>
       </c>
       <c r="H47" s="69"/>
       <c r="I47" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J47" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="K47" s="149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>73</v>
+        <v>146</v>
+      </c>
+      <c r="J47" s="69"/>
+      <c r="K47" s="152" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="A48" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>7</v>
@@ -16650,153 +16634,157 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G48" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>333</v>
       </c>
       <c r="H48" s="69"/>
       <c r="I48" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J48" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="152" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="27" t="s">
-        <v>76</v>
+        <v>146</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="149" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+      <c r="A49" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="E49" s="39">
         <v>1</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H49" s="69"/>
       <c r="I49" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="J49" s="69"/>
-      <c r="K49" s="152" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>67</v>
+      <c r="J49" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="149" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="E50" s="39">
         <v>1</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>333</v>
+        <v>444</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>444</v>
       </c>
       <c r="H50" s="69"/>
       <c r="I50" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="K50" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="52" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="J50" s="69"/>
+      <c r="K50" s="151"/>
+    </row>
+    <row r="51" spans="1:12" ht="65" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>79</v>
+        <v>339</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E51" s="39">
         <v>1</v>
       </c>
       <c r="F51" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="H51" s="69"/>
       <c r="I51" s="71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K51" s="149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="25" t="s">
-        <v>76</v>
+        <v>340</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="E52" s="39">
         <v>1</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>233</v>
       </c>
       <c r="H52" s="69"/>
       <c r="I52" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="69"/>
-      <c r="K52" s="151"/>
-    </row>
-    <row r="53" spans="1:12" ht="65" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>67</v>
+        <v>150</v>
+      </c>
+      <c r="J52" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52" s="149" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>7</v>
@@ -16805,28 +16793,29 @@
         <v>1</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="H53" s="69"/>
       <c r="I53" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="J53" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="K53" s="149" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>170</v>
@@ -16838,31 +16827,31 @@
         <v>1</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="H54" s="69"/>
       <c r="I54" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J54" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="K54" s="149" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="K54" s="152" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>7</v>
@@ -16871,29 +16860,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>234</v>
+        <v>444</v>
+      </c>
+      <c r="G55" s="97" t="s">
+        <v>444</v>
       </c>
       <c r="H55" s="69"/>
       <c r="I55" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J55" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="K55" s="149" t="s">
-        <v>552</v>
-      </c>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="1:12" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="K55" s="152" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>170</v>
@@ -16905,64 +16893,64 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H56" s="69"/>
       <c r="I56" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J56" s="74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K56" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E57" s="39">
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G57" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>353</v>
       </c>
       <c r="H57" s="69"/>
       <c r="I57" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J57" s="74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K57" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>7</v>
@@ -16971,31 +16959,31 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>352</v>
+        <v>444</v>
+      </c>
+      <c r="G58" s="97" t="s">
+        <v>444</v>
       </c>
       <c r="H58" s="69"/>
       <c r="I58" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J58" s="74" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K58" s="152" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>24</v>
@@ -17004,61 +16992,61 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H59" s="69"/>
       <c r="I59" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J59" s="74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K59" s="152" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A60" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E60" s="39">
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G60" s="97" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>355</v>
       </c>
       <c r="H60" s="69"/>
       <c r="I60" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J60" s="74" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K60" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>170</v>
@@ -17070,90 +17058,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H61" s="69"/>
       <c r="I61" s="71" t="s">
         <v>150</v>
       </c>
       <c r="J61" s="74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61" s="152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="39">
-        <v>1</v>
-      </c>
-      <c r="F62" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="H62" s="69"/>
-      <c r="I62" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="K62" s="152" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="39">
-        <v>1</v>
-      </c>
-      <c r="F63" s="98" t="s">
-        <v>449</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="H63" s="69"/>
-      <c r="I63" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="J63" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="K63" s="152" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E41:E63 E10:E12 E23:E39 E15:E18 E8">
+  <conditionalFormatting sqref="E39:E61 E10:E12 E15:E18 E8 E23:E37">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -17209,21 +17131,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G53" r:id="rId1" xr:uid="{C383A038-371B-4A24-B18D-D850FB5C5EEE}"/>
-    <hyperlink ref="G58" r:id="rId2" xr:uid="{08EA1489-3F8A-44E5-AEB6-6907394E5AD8}"/>
-    <hyperlink ref="G59" r:id="rId3" xr:uid="{DC924E46-03C6-4918-8E1D-F8E863E5B89C}"/>
-    <hyperlink ref="G61" r:id="rId4" xr:uid="{B9418376-414A-4F86-8C45-5CD902123AD5}"/>
-    <hyperlink ref="G62" r:id="rId5" xr:uid="{CAA3D22E-1BA8-437B-93C8-FDA8A5AB56C1}"/>
-    <hyperlink ref="G63" r:id="rId6" xr:uid="{C53120CD-C6D8-4E9C-8AE8-B5C63D49994B}"/>
-    <hyperlink ref="G47" r:id="rId7" xr:uid="{1381FAB2-5C77-4225-B683-2A1760CE826F}"/>
-    <hyperlink ref="G42" r:id="rId8" xr:uid="{9F092322-E71C-4B70-B418-CDD92D902270}"/>
-    <hyperlink ref="G41" r:id="rId9" xr:uid="{866FEFF2-8245-4B6D-8AC3-A764D8F1C780}"/>
-    <hyperlink ref="G44" r:id="rId10" xr:uid="{CE03E88A-5AE4-40A0-91AC-A07E39CCA519}"/>
-    <hyperlink ref="G50" r:id="rId11" xr:uid="{DD0AEAE1-6524-48CB-8C4D-8EAE8260A01D}"/>
+    <hyperlink ref="G51" r:id="rId1" xr:uid="{C383A038-371B-4A24-B18D-D850FB5C5EEE}"/>
+    <hyperlink ref="G56" r:id="rId2" xr:uid="{08EA1489-3F8A-44E5-AEB6-6907394E5AD8}"/>
+    <hyperlink ref="G57" r:id="rId3" xr:uid="{DC924E46-03C6-4918-8E1D-F8E863E5B89C}"/>
+    <hyperlink ref="G59" r:id="rId4" xr:uid="{B9418376-414A-4F86-8C45-5CD902123AD5}"/>
+    <hyperlink ref="G60" r:id="rId5" xr:uid="{CAA3D22E-1BA8-437B-93C8-FDA8A5AB56C1}"/>
+    <hyperlink ref="G61" r:id="rId6" xr:uid="{C53120CD-C6D8-4E9C-8AE8-B5C63D49994B}"/>
+    <hyperlink ref="G45" r:id="rId7" xr:uid="{1381FAB2-5C77-4225-B683-2A1760CE826F}"/>
+    <hyperlink ref="G40" r:id="rId8" xr:uid="{9F092322-E71C-4B70-B418-CDD92D902270}"/>
+    <hyperlink ref="G39" r:id="rId9" xr:uid="{866FEFF2-8245-4B6D-8AC3-A764D8F1C780}"/>
+    <hyperlink ref="G42" r:id="rId10" xr:uid="{CE03E88A-5AE4-40A0-91AC-A07E39CCA519}"/>
+    <hyperlink ref="G48" r:id="rId11" xr:uid="{DD0AEAE1-6524-48CB-8C4D-8EAE8260A01D}"/>
     <hyperlink ref="G30" r:id="rId12" xr:uid="{9A17DEBF-1542-4174-B0ED-99E8295A143B}"/>
-    <hyperlink ref="G54" r:id="rId13" xr:uid="{64E03E1F-BFDE-415C-9B74-8EEECBD53EE2}"/>
-    <hyperlink ref="G55" r:id="rId14" xr:uid="{7B62689A-1237-4BD4-AC5C-C54160CEA4DC}"/>
-    <hyperlink ref="G56" r:id="rId15" display="JDV_J189-TemporaliteCapacite-ROR/" xr:uid="{539D2E7F-50DA-4BFC-B17A-6C835C2B9061}"/>
+    <hyperlink ref="G52" r:id="rId13" xr:uid="{64E03E1F-BFDE-415C-9B74-8EEECBD53EE2}"/>
+    <hyperlink ref="G53" r:id="rId14" xr:uid="{7B62689A-1237-4BD4-AC5C-C54160CEA4DC}"/>
+    <hyperlink ref="G54" r:id="rId15" display="JDV_J189-TemporaliteCapacite-ROR/" xr:uid="{539D2E7F-50DA-4BFC-B17A-6C835C2B9061}"/>
     <hyperlink ref="G7" r:id="rId16" xr:uid="{323D6299-D414-4972-9C3A-06A2DCFD42FF}"/>
     <hyperlink ref="G17" r:id="rId17" xr:uid="{42B5866E-A475-46E0-BB36-AC7A5AAAB91F}"/>
     <hyperlink ref="G20" r:id="rId18" xr:uid="{3D8FA0CA-94C2-4CAD-9638-73390110E547}"/>
@@ -17237,13 +17159,13 @@
           <x14:formula1>
             <xm:f>Options!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L9 H15:H1048576 I2 H10:H12 H3:H8</xm:sqref>
+          <xm:sqref>L9 I2 H10:H12 H3:H8 H15:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4986AD22-2C4C-4B1F-ABB4-C29035467E8A}">
           <x14:formula1>
             <xm:f>Options!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F9 E40 E19:E22 E2:E8</xm:sqref>
+          <xm:sqref>F9 E38 E19:E22 E2:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/input/images/mappingFHIR_ROR_ME3-0.xlsx
+++ b/input/images/mappingFHIR_ROR_ME3-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv-my.sharepoint.com/personal/sylvain_demey_esante_gouv_fr/Documents/Documents/GitHub/IG-fhir-repertoire-offre-ressources-sante/input/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sly\Documents\GitHub\FIG_ans.fhir.fr.ror30\input\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4A3248EC-191E-49A5-BC8B-B29775C59F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E55C5C9-0B57-4C40-8734-45B86F6693C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398822D5-50CF-482B-93F8-8E9C3065C796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{0B1F83C4-1851-4321-B3FD-E63519F1FEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Projet" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="582">
   <si>
     <t>FHIR path</t>
   </si>
@@ -1288,12 +1288,6 @@
   </si>
   <si>
     <t>extension:houseNumber</t>
-  </si>
-  <si>
-    <t>closingDate</t>
-  </si>
-  <si>
-    <t>previsionalReopeningDate</t>
   </si>
   <si>
     <t>operationalActivity</t>
@@ -1889,6 +1883,16 @@
   </si>
   <si>
     <t>adresse/localite</t>
+  </si>
+  <si>
+    <t>closingReopeningDate</t>
+  </si>
+  <si>
+    <t>dateFermeture + datePrevisionnelleReouverture</t>
+  </si>
+  <si>
+    <t>closingRepoeningDate.during.start = dateFermeture
+closingRepoeningDate.during.end = datePrevisionnelleReouverture</t>
   </si>
 </sst>
 </file>
@@ -2227,7 +2231,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2704,6 +2708,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3872,22 +3879,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="173"/>
+      <c r="B1" s="174"/>
     </row>
     <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>388</v>
       </c>
-      <c r="B2" s="175"/>
+      <c r="B2" s="176"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="173"/>
+      <c r="B3" s="174"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
@@ -3914,10 +3921,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="174"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
@@ -3968,14 +3975,14 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="173" t="s">
-        <v>420</v>
-      </c>
-      <c r="B14" s="173"/>
+      <c r="A14" s="174" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="174"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B15" s="93"/>
     </row>
@@ -3984,7 +3991,7 @@
         <v>44981</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4020,11 +4027,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29B823-4189-4F92-8E84-323E184E5AA4}">
-  <dimension ref="A1:M354"/>
+  <dimension ref="A1:M353"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4040,7 +4047,7 @@
     <col min="9" max="9" width="21.453125" style="12" customWidth="1"/>
     <col min="10" max="10" width="35.453125" style="11" customWidth="1"/>
     <col min="11" max="11" width="35.453125" style="135" customWidth="1"/>
-    <col min="12" max="12" width="27" style="15" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" style="15" customWidth="1"/>
     <col min="13" max="16384" width="10.81640625" style="11"/>
   </cols>
   <sheetData>
@@ -4074,7 +4081,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L1" s="101" t="s">
         <v>1</v>
@@ -4111,20 +4118,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="157" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -4143,24 +4150,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="127"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -4169,23 +4176,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -4197,23 +4204,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -4225,25 +4232,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -4256,23 +4263,23 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K8" s="165"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -4285,15 +4292,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K9" s="165"/>
     </row>
@@ -4328,28 +4335,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>68</v>
@@ -4358,17 +4365,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K12" s="128"/>
       <c r="L12" s="76"/>
@@ -4404,20 +4411,20 @@
         <v>1</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J14" s="83" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L14" s="76"/>
     </row>
@@ -4436,20 +4443,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L15" s="76"/>
     </row>
@@ -4468,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>228</v>
@@ -4477,16 +4484,16 @@
         <v>12</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J16" s="83" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:13" customFormat="1" ht="52" x14ac:dyDescent="0.35">
@@ -4504,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>268</v>
@@ -4513,13 +4520,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J17" s="83" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -4538,20 +4545,20 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J18" s="50" t="s">
         <v>229</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L18" s="76"/>
     </row>
@@ -4569,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="91" t="s">
@@ -4582,7 +4589,7 @@
         <v>53</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L19" s="76"/>
     </row>
@@ -4600,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -4613,13 +4620,13 @@
         <v>54</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>67</v>
@@ -4631,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G21" s="60" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>12</v>
@@ -4646,13 +4653,13 @@
         <v>52</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C22" s="88" t="s">
         <v>225</v>
@@ -4664,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -4675,13 +4682,13 @@
       </c>
       <c r="J22" s="83"/>
       <c r="K22" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>72</v>
@@ -4693,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="91" t="s">
@@ -4706,13 +4713,13 @@
         <v>55</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>72</v>
@@ -4724,10 +4731,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="91" t="s">
@@ -4737,13 +4744,13 @@
         <v>56</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>227</v>
@@ -4755,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H25" s="69"/>
       <c r="I25" s="91" t="s">
@@ -4768,7 +4775,7 @@
         <v>226</v>
       </c>
       <c r="K25" s="127" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L25" s="76"/>
     </row>
@@ -4787,26 +4794,26 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G26" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>166</v>
       </c>
       <c r="K26" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -4818,10 +4825,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -4831,13 +4838,13 @@
         <v>93</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>67</v>
@@ -4849,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>376</v>
@@ -4864,13 +4871,13 @@
         <v>92</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>71</v>
@@ -4882,10 +4889,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G29" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25" t="s">
@@ -4895,13 +4902,13 @@
         <v>94</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>67</v>
@@ -4913,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>300</v>
@@ -4928,7 +4935,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="130" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -4945,20 +4952,20 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G31" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H31" s="31"/>
       <c r="I31" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J31" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K31" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L31" s="76"/>
     </row>
@@ -4977,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>265</v>
@@ -4986,13 +4993,13 @@
         <v>12</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J32" s="83" t="s">
         <v>32</v>
       </c>
       <c r="K32" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L32" s="76"/>
     </row>
@@ -5011,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>266</v>
@@ -5020,13 +5027,13 @@
         <v>12</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J33" s="83" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L33" s="76"/>
     </row>
@@ -5045,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G34" s="79" t="s">
         <v>267</v>
@@ -5054,13 +5061,13 @@
         <v>12</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K34" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L34" s="76"/>
     </row>
@@ -5079,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G35" s="79" t="s">
         <v>274</v>
@@ -5088,13 +5095,13 @@
         <v>12</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J35" s="83" t="s">
         <v>34</v>
       </c>
       <c r="K35" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L35" s="76"/>
     </row>
@@ -5113,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G36" s="79" t="s">
         <v>275</v>
@@ -5122,13 +5129,13 @@
         <v>12</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J36" s="83" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="127" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L36" s="76"/>
     </row>
@@ -5147,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G37" s="79" t="s">
         <v>275</v>
@@ -5156,13 +5163,13 @@
         <v>12</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J37" s="83" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="127" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L37" s="76"/>
     </row>
@@ -5181,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>278</v>
@@ -5190,13 +5197,13 @@
         <v>12</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J38" s="83" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="127" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L38" s="76"/>
     </row>
@@ -5215,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G39" s="79" t="s">
         <v>279</v>
@@ -5224,13 +5231,13 @@
         <v>12</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J39" s="83" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -5249,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G40" s="79" t="s">
         <v>280</v>
@@ -5258,13 +5265,13 @@
         <v>12</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J40" s="83" t="s">
         <v>42</v>
       </c>
       <c r="K40" s="127" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L40" s="76"/>
     </row>
@@ -5283,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G41" s="79" t="s">
         <v>281</v>
@@ -5292,13 +5299,13 @@
         <v>12</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L41" s="76"/>
     </row>
@@ -5317,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G42" s="79" t="s">
         <v>282</v>
@@ -5326,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J42" s="83" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L42" s="76"/>
     </row>
@@ -5351,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G43" s="79" t="s">
         <v>283</v>
@@ -5360,19 +5367,19 @@
         <v>12</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J43" s="83" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L43" s="76"/>
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A44" s="36" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="26" t="s">
@@ -5383,26 +5390,26 @@
         <v>1</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="25" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="100" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K44" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>67</v>
@@ -5414,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G45" s="79" t="s">
         <v>284</v>
@@ -5429,13 +5436,13 @@
         <v>62</v>
       </c>
       <c r="K45" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L45" s="76"/>
     </row>
     <row r="46" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>67</v>
@@ -5447,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G46" s="79" t="s">
         <v>289</v>
@@ -5462,13 +5469,13 @@
         <v>63</v>
       </c>
       <c r="K46" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L46" s="76"/>
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="25" t="s">
@@ -5479,29 +5486,29 @@
         <v>1</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J47" s="100" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K47" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L47" s="76"/>
     </row>
-    <row r="48" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B48" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>74</v>
+        <v>579</v>
+      </c>
+      <c r="C48" s="173" t="s">
+        <v>78</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>24</v>
@@ -5510,96 +5517,103 @@
         <v>1</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G48" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J48" s="83" t="s">
-        <v>46</v>
+        <v>580</v>
       </c>
       <c r="K48" s="127" t="s">
-        <v>535</v>
-      </c>
-      <c r="L48" s="76"/>
-    </row>
-    <row r="49" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="B49" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="39">
-        <v>1</v>
-      </c>
-      <c r="F49" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G49" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J49" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="127" t="s">
-        <v>535</v>
-      </c>
-      <c r="L49" s="76"/>
-    </row>
-    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="102"/>
-    </row>
-    <row r="51" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="B49" s="59"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="102"/>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1</v>
+      </c>
+      <c r="F50" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="J50" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="L50" s="76"/>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="C51" s="25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E51" s="39">
         <v>1</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="H51" s="39"/>
+        <v>442</v>
+      </c>
+      <c r="G51" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="I51" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J51" s="84" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="K51" s="132" t="s">
         <v>535</v>
@@ -5607,330 +5621,328 @@
       <c r="L51" s="76"/>
     </row>
     <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="182" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="39">
-        <v>1</v>
-      </c>
-      <c r="F52" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>248</v>
-      </c>
-      <c r="H52" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J52" s="84" t="s">
-        <v>301</v>
-      </c>
-      <c r="K52" s="132" t="s">
-        <v>537</v>
-      </c>
-      <c r="L52" s="76"/>
-    </row>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" s="181" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="177" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="183" t="s">
+      <c r="E52" s="177">
+        <v>1</v>
+      </c>
+      <c r="F52" s="185" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="177"/>
+      <c r="I52" s="178" t="s">
+        <v>475</v>
+      </c>
+      <c r="J52" s="179" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" s="180" t="s">
+        <v>535</v>
+      </c>
+      <c r="L52" s="181"/>
+    </row>
+    <row r="53" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="183"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="119" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="177"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="179"/>
+      <c r="K53" s="180"/>
+      <c r="L53" s="181"/>
+    </row>
+    <row r="54" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="183"/>
+      <c r="B54" s="182"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="H54" s="177"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="179"/>
+      <c r="K54" s="180"/>
+      <c r="L54" s="181"/>
+    </row>
+    <row r="55" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="183"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="119" t="s">
+        <v>558</v>
+      </c>
+      <c r="H55" s="177"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="179"/>
+      <c r="K55" s="180"/>
+      <c r="L55" s="181"/>
+    </row>
+    <row r="56" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="183"/>
+      <c r="B56" s="182"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="185"/>
+      <c r="G56" s="119" t="s">
+        <v>559</v>
+      </c>
+      <c r="H56" s="177"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="179"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="181"/>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="176">
-        <v>1</v>
-      </c>
-      <c r="F53" s="184" t="s">
-        <v>444</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177" t="s">
-        <v>477</v>
-      </c>
-      <c r="J53" s="178" t="s">
-        <v>302</v>
-      </c>
-      <c r="K53" s="179" t="s">
-        <v>537</v>
-      </c>
-      <c r="L53" s="180"/>
-    </row>
-    <row r="54" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="182"/>
-      <c r="B54" s="181"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="H54" s="176"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="179"/>
-      <c r="L54" s="180"/>
-    </row>
-    <row r="55" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="182"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="H55" s="176"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="179"/>
-      <c r="L55" s="180"/>
-    </row>
-    <row r="56" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="182"/>
-      <c r="B56" s="181"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="119" t="s">
-        <v>560</v>
-      </c>
-      <c r="H56" s="176"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="179"/>
-      <c r="L56" s="180"/>
-    </row>
-    <row r="57" spans="1:12" s="124" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="182"/>
-      <c r="B57" s="181"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="119" t="s">
-        <v>561</v>
-      </c>
-      <c r="H57" s="176"/>
-      <c r="I57" s="177"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="179"/>
-      <c r="L57" s="180"/>
-    </row>
-    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="25" t="s">
+      <c r="E57" s="39">
+        <v>1</v>
+      </c>
+      <c r="F57" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="127" t="s">
+        <v>536</v>
+      </c>
+      <c r="L57" s="76"/>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="A58" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>7</v>
+      <c r="D58" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="E58" s="39">
         <v>1</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J58" s="83" t="s">
-        <v>35</v>
+        <v>475</v>
+      </c>
+      <c r="J58" s="85" t="s">
+        <v>39</v>
       </c>
       <c r="K58" s="127" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L58" s="76"/>
     </row>
     <row r="59" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="47" t="s">
-        <v>69</v>
+      <c r="A59" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E59" s="39">
         <v>1</v>
       </c>
       <c r="F59" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G59" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J59" s="85" t="s">
-        <v>39</v>
+        <v>475</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>41</v>
       </c>
       <c r="K59" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L59" s="76"/>
     </row>
-    <row r="60" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="A60" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="46" t="s">
-        <v>27</v>
+    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="40"/>
+      <c r="C60" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E60" s="39">
         <v>1</v>
       </c>
       <c r="F60" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G60" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J60" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K60" s="127" t="s">
-        <v>535</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K60" s="127"/>
       <c r="L60" s="76"/>
     </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
       <c r="A61" s="38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B61" s="40"/>
-      <c r="C61" s="47" t="s">
-        <v>75</v>
+      <c r="C61" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E61" s="39">
         <v>1</v>
       </c>
       <c r="F61" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G61" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J61" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="K61" s="127"/>
+        <v>57</v>
+      </c>
+      <c r="J61" s="99" t="s">
+        <v>442</v>
+      </c>
+      <c r="K61" s="127" t="s">
+        <v>533</v>
+      </c>
       <c r="L61" s="76"/>
     </row>
     <row r="62" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="A62" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="40"/>
+      <c r="A62" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>422</v>
+      </c>
       <c r="C62" s="27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E62" s="39">
         <v>1</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G62" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="H62" s="39"/>
+        <v>442</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="I62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J62" s="99" t="s">
-        <v>444</v>
+      <c r="J62" s="83" t="s">
+        <v>58</v>
       </c>
       <c r="K62" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L62" s="76"/>
     </row>
     <row r="63" spans="1:12" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>67</v>
+      <c r="A63" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E63" s="39">
         <v>1</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G63" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>12</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G63" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="H63" s="39"/>
       <c r="I63" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J63" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K63" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L63" s="76"/>
     </row>
@@ -5939,7 +5951,7 @@
         <v>382</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>75</v>
@@ -5951,86 +5963,86 @@
         <v>1</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G64" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="25" t="s">
         <v>57</v>
       </c>
       <c r="J64" s="83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K64" s="127" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L64" s="76"/>
     </row>
-    <row r="65" spans="1:13" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" customFormat="1" ht="182" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>426</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B65" s="18"/>
       <c r="C65" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E65" s="39">
         <v>1</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G65" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J65" s="83" t="s">
-        <v>60</v>
+        <v>475</v>
+      </c>
+      <c r="J65" s="118" t="s">
+        <v>85</v>
       </c>
       <c r="K65" s="127" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L65" s="76"/>
     </row>
-    <row r="66" spans="1:13" customFormat="1" ht="182" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B66" s="18"/>
+        <v>384</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="C66" s="25" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E66" s="39">
         <v>1</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G66" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="J66" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="K66" s="127" t="s">
-        <v>540</v>
+        <v>230</v>
+      </c>
+      <c r="J66" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="133" t="s">
+        <v>537</v>
       </c>
       <c r="L66" s="76"/>
     </row>
@@ -6039,10 +6051,10 @@
         <v>384</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>24</v>
@@ -6051,20 +6063,20 @@
         <v>1</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G67" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="G67" s="80" t="s">
+        <v>299</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="25" t="s">
         <v>230</v>
       </c>
       <c r="J67" s="50" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L67" s="76"/>
     </row>
@@ -6073,10 +6085,10 @@
         <v>384</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>428</v>
+        <v>89</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>24</v>
@@ -6085,20 +6097,20 @@
         <v>1</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G68" s="80" t="s">
-        <v>299</v>
+        <v>442</v>
+      </c>
+      <c r="G68" s="97" t="s">
+        <v>442</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="25" t="s">
         <v>230</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68" s="133" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L68" s="76"/>
     </row>
@@ -6107,10 +6119,10 @@
         <v>384</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>89</v>
+        <v>425</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>24</v>
@@ -6119,20 +6131,20 @@
         <v>1</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G69" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="G69" s="80" t="s">
+        <v>298</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="25" t="s">
         <v>230</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K69" s="133" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L69" s="76"/>
     </row>
@@ -6147,69 +6159,66 @@
         <v>232</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E70" s="39">
         <v>1</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G70" s="80" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="25" t="s">
         <v>230</v>
       </c>
       <c r="J70" s="50" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="K70" s="133" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L70" s="76"/>
     </row>
-    <row r="71" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>384</v>
-      </c>
+    <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D71" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="39">
-        <v>1</v>
-      </c>
-      <c r="F71" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="G71" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="H71" s="39"/>
+      <c r="E71" s="31">
+        <v>1</v>
+      </c>
+      <c r="F71" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="G71" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="H71" s="25"/>
       <c r="I71" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="J71" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="K71" s="133" t="s">
-        <v>539</v>
-      </c>
-      <c r="L71" s="76"/>
+        <v>219</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K71" s="130" t="s">
+        <v>537</v>
+      </c>
+      <c r="M71" s="5"/>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>71</v>
+        <v>477</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>7</v>
@@ -6218,119 +6227,101 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="G72" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="H72" s="25"/>
+        <v>442</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I72" s="25" t="s">
         <v>219</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K72" s="130" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>67</v>
+        <v>478</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E73" s="31">
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>12</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G73" s="98" t="s">
+        <v>442</v>
+      </c>
+      <c r="H73" s="25"/>
       <c r="I73" s="25" t="s">
         <v>219</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K73" s="130" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M73" s="5"/>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B74" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E74" s="31">
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="G74" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="H74" s="25"/>
+        <v>442</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="I74" s="25" t="s">
         <v>219</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K74" s="130" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="31">
-        <v>1</v>
-      </c>
-      <c r="F75" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="K75" s="130" t="s">
-        <v>539</v>
-      </c>
-      <c r="M75" s="5"/>
+    <row r="75" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="3"/>
+      <c r="K75" s="134"/>
+      <c r="L75" s="76"/>
     </row>
     <row r="76" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
@@ -9946,34 +9937,21 @@
       <c r="K353" s="134"/>
       <c r="L353" s="76"/>
     </row>
-    <row r="354" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="3"/>
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="7"/>
-      <c r="F354" s="7"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="7"/>
-      <c r="I354" s="3"/>
-      <c r="K354" s="134"/>
-      <c r="L354" s="76"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="L52:L56"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E9 E14:E18 E11 E51:E53 E26 E31:E49 E58:E71">
+  <conditionalFormatting sqref="E3:E9 E14:E18 E11 E50:E52 E26 E31:E48 E57:E70">
     <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -10006,7 +9984,7 @@
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E75">
+  <conditionalFormatting sqref="E71:E74">
     <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -10042,24 +10020,24 @@
     <hyperlink ref="G43" r:id="rId11" xr:uid="{63524A40-59C2-4A77-A3D5-FA47B1A58420}"/>
     <hyperlink ref="G45" r:id="rId12" xr:uid="{5C2BBF00-B4A3-4F62-B38A-A09AC836710C}"/>
     <hyperlink ref="G46" r:id="rId13" xr:uid="{8E471A35-1F36-452F-92E1-86136C87F6E7}"/>
-    <hyperlink ref="G70" r:id="rId14" xr:uid="{50226096-7F85-45AA-AF46-F44A5AC7C9F3}"/>
-    <hyperlink ref="G68" r:id="rId15" xr:uid="{11F4B5EB-07A2-40D2-A1C1-2E799722A381}"/>
-    <hyperlink ref="G71" r:id="rId16" xr:uid="{D029CD95-2306-4BCC-959B-38FADA197BDF}"/>
+    <hyperlink ref="G69" r:id="rId14" xr:uid="{50226096-7F85-45AA-AF46-F44A5AC7C9F3}"/>
+    <hyperlink ref="G67" r:id="rId15" xr:uid="{11F4B5EB-07A2-40D2-A1C1-2E799722A381}"/>
+    <hyperlink ref="G70" r:id="rId16" xr:uid="{D029CD95-2306-4BCC-959B-38FADA197BDF}"/>
     <hyperlink ref="G7" r:id="rId17" xr:uid="{C856B61C-1AF2-435E-95AB-5CD802ED9B60}"/>
-    <hyperlink ref="G63" r:id="rId18" xr:uid="{AEB25219-3087-4166-98E4-6BF11E4A3A2C}"/>
+    <hyperlink ref="G62" r:id="rId18" xr:uid="{AEB25219-3087-4166-98E4-6BF11E4A3A2C}"/>
     <hyperlink ref="G21" r:id="rId19" xr:uid="{B1A5998F-BB22-4438-85A6-2F53207DDB03}"/>
     <hyperlink ref="G33" r:id="rId20" xr:uid="{7B23802B-77EB-4E48-9B8F-BE52FE3D2EFB}"/>
     <hyperlink ref="G32" r:id="rId21" xr:uid="{7AB1C20D-CF6F-429A-AF7A-7B391804CB7E}"/>
     <hyperlink ref="G28" r:id="rId22" xr:uid="{FA00CE8F-F0D5-4241-ABE6-7C8A78046D9B}"/>
     <hyperlink ref="G30" r:id="rId23" xr:uid="{2D9762AD-C521-45F6-8FF8-4A6AB4A912CA}"/>
-    <hyperlink ref="G73" r:id="rId24" xr:uid="{13500667-D74F-49AE-9974-702788A1C888}"/>
-    <hyperlink ref="G75" r:id="rId25" xr:uid="{C00F86EF-8E57-4550-87BE-DBBFC1FBA269}"/>
-    <hyperlink ref="G52" r:id="rId26" xr:uid="{D080E042-4BE6-4532-8095-5EC403439175}"/>
-    <hyperlink ref="G53" r:id="rId27" xr:uid="{4CA127D9-54A1-4DE7-93BA-5D329C4CEE4B}"/>
-    <hyperlink ref="G55" r:id="rId28" xr:uid="{C6DC5B37-8D52-4CB3-9C5C-F7C41A4E714B}"/>
-    <hyperlink ref="G57" r:id="rId29" xr:uid="{B7656C6D-28E8-492B-BB76-47D91BB0D094}"/>
-    <hyperlink ref="G54" r:id="rId30" xr:uid="{386CEC1A-D7E4-4C10-9D68-4545373F9076}"/>
-    <hyperlink ref="G56" r:id="rId31" xr:uid="{26B5FEDF-37AB-470C-8CE8-1594B341F95A}"/>
+    <hyperlink ref="G72" r:id="rId24" xr:uid="{13500667-D74F-49AE-9974-702788A1C888}"/>
+    <hyperlink ref="G74" r:id="rId25" xr:uid="{C00F86EF-8E57-4550-87BE-DBBFC1FBA269}"/>
+    <hyperlink ref="G51" r:id="rId26" xr:uid="{D080E042-4BE6-4532-8095-5EC403439175}"/>
+    <hyperlink ref="G52" r:id="rId27" xr:uid="{4CA127D9-54A1-4DE7-93BA-5D329C4CEE4B}"/>
+    <hyperlink ref="G54" r:id="rId28" xr:uid="{C6DC5B37-8D52-4CB3-9C5C-F7C41A4E714B}"/>
+    <hyperlink ref="G56" r:id="rId29" xr:uid="{B7656C6D-28E8-492B-BB76-47D91BB0D094}"/>
+    <hyperlink ref="G53" r:id="rId30" xr:uid="{386CEC1A-D7E4-4C10-9D68-4545373F9076}"/>
+    <hyperlink ref="G55" r:id="rId31" xr:uid="{26B5FEDF-37AB-470C-8CE8-1594B341F95A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
@@ -10070,13 +10048,13 @@
           <x14:formula1>
             <xm:f>Options!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E58:E61 E72:E75 E2:E50</xm:sqref>
+          <xm:sqref>E57:E60 E71:E74 E2:E49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05A64A11-1997-4CE9-80EF-773773F3148B}">
           <x14:formula1>
             <xm:f>Options!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H24 H26:H53 H58:H1048576</xm:sqref>
+          <xm:sqref>H2:H24 H57:H1048576 H26:H52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10139,7 +10117,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -10176,14 +10154,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10206,26 +10184,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10234,23 +10212,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10262,23 +10240,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10290,25 +10268,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K7" s="83"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -10321,15 +10299,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K8" s="165"/>
     </row>
@@ -10364,10 +10342,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
@@ -10393,10 +10371,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
@@ -10409,7 +10387,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="25" t="s">
@@ -10422,19 +10400,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K12" s="28"/>
     </row>
@@ -10569,7 +10547,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -10608,14 +10586,14 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J3" s="104" t="s">
         <v>136</v>
@@ -10639,27 +10617,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K4" s="143"/>
       <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -10668,24 +10646,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="165"/>
       <c r="M5" s="137"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -10697,24 +10675,24 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K6" s="128"/>
       <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -10726,26 +10704,26 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K7" s="127"/>
       <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="168" t="s">
@@ -10758,24 +10736,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="168" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -10788,15 +10766,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -10833,17 +10811,17 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J11" s="122" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K11" s="130"/>
     </row>
@@ -10862,17 +10840,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J12" s="122" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K12" s="130"/>
     </row>
@@ -10908,10 +10886,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="91" t="s">
@@ -10921,7 +10899,7 @@
         <v>223</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10939,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>303</v>
@@ -10954,7 +10932,7 @@
         <v>179</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -10972,10 +10950,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="91" t="s">
@@ -10985,7 +10963,7 @@
         <v>195</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -11003,10 +10981,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="91" t="s">
@@ -11016,7 +10994,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L17" s="76"/>
     </row>
@@ -11035,10 +11013,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="91" t="s">
@@ -11048,14 +11026,14 @@
         <v>54</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>67</v>
@@ -11067,10 +11045,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>12</v>
@@ -11082,14 +11060,14 @@
         <v>52</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>225</v>
@@ -11101,10 +11079,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="91" t="s">
@@ -11112,14 +11090,14 @@
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21" s="40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>72</v>
@@ -11131,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="91" t="s">
@@ -11144,14 +11122,14 @@
         <v>55</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22" s="40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>72</v>
@@ -11163,10 +11141,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="91" t="s">
@@ -11176,14 +11154,14 @@
         <v>56</v>
       </c>
       <c r="K22" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>227</v>
@@ -11195,10 +11173,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="91" t="s">
@@ -11208,7 +11186,7 @@
         <v>226</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L23" s="76"/>
     </row>
@@ -11227,10 +11205,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="105" t="s">
@@ -11240,12 +11218,12 @@
         <v>91</v>
       </c>
       <c r="K24" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>71</v>
@@ -11257,10 +11235,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25" t="s">
@@ -11270,13 +11248,13 @@
         <v>93</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M25" s="140"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>67</v>
@@ -11288,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>376</v>
@@ -11303,13 +11281,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M26" s="140"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>71</v>
@@ -11321,10 +11299,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25" t="s">
@@ -11334,13 +11312,13 @@
         <v>94</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M27" s="140"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>67</v>
@@ -11352,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>300</v>
@@ -11367,13 +11345,13 @@
         <v>90</v>
       </c>
       <c r="K28" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M28" s="140"/>
     </row>
     <row r="29" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="40" t="s">
@@ -11386,20 +11364,20 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G29" s="107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -11416,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>304</v>
@@ -11431,7 +11409,7 @@
         <v>181</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -11448,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>305</v>
@@ -11463,7 +11441,7 @@
         <v>182</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -11480,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>306</v>
@@ -11495,7 +11473,7 @@
         <v>183</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -11512,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>307</v>
@@ -11527,7 +11505,7 @@
         <v>184</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -11544,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>308</v>
@@ -11559,7 +11537,7 @@
         <v>185</v>
       </c>
       <c r="K34" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -11576,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>309</v>
@@ -11591,7 +11569,7 @@
         <v>186</v>
       </c>
       <c r="K35" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -11608,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>310</v>
@@ -11623,7 +11601,7 @@
         <v>187</v>
       </c>
       <c r="K36" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -11640,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>311</v>
@@ -11655,7 +11633,7 @@
         <v>188</v>
       </c>
       <c r="K37" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -11672,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>312</v>
@@ -11687,7 +11665,7 @@
         <v>189</v>
       </c>
       <c r="K38" s="145" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -11704,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>281</v>
@@ -11719,7 +11697,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -11754,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>313</v>
@@ -11769,12 +11747,12 @@
         <v>191</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B42" s="87"/>
       <c r="C42" s="47"/>
@@ -11785,22 +11763,22 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="25"/>
       <c r="I42" s="103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K42" s="130"/>
     </row>
     <row r="43" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="87" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>67</v>
@@ -11812,7 +11790,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>315</v>
@@ -11827,14 +11805,14 @@
         <v>176</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L43" s="77"/>
     </row>
     <row r="44" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="87" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>71</v>
@@ -11846,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="25"/>
@@ -11857,13 +11835,13 @@
         <v>177</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="87" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>71</v>
@@ -11875,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G45" s="49"/>
       <c r="H45" s="25"/>
@@ -11886,12 +11864,12 @@
         <v>178</v>
       </c>
       <c r="K45" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="47" t="s">
@@ -11904,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>314</v>
@@ -11919,12 +11897,12 @@
         <v>192</v>
       </c>
       <c r="K46" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="47" t="s">
@@ -11937,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -11948,12 +11926,12 @@
         <v>193</v>
       </c>
       <c r="K47" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="78" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="47" t="s">
@@ -11966,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -11977,7 +11955,7 @@
         <v>194</v>
       </c>
       <c r="K48" s="145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -12100,8 +12078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9638EC13-446E-4F6B-AFBD-5EC8594B64BB}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12151,7 +12129,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>1</v>
@@ -12188,20 +12166,20 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J3" s="113" t="s">
         <v>136</v>
       </c>
       <c r="K3" s="153" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -12219,26 +12197,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>24</v>
@@ -12250,16 +12228,16 @@
       <c r="G5" s="97"/>
       <c r="H5" s="39"/>
       <c r="I5" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="98" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="166"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -12271,23 +12249,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="106" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K6" s="154"/>
     </row>
     <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -12299,27 +12277,27 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K7" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -12332,24 +12310,24 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="121" t="s">
@@ -12362,15 +12340,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G9" s="97"/>
       <c r="H9" s="39"/>
       <c r="I9" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K9" s="165"/>
       <c r="M9" s="137"/>
@@ -12406,10 +12384,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="18"/>
@@ -12436,7 +12414,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="25" t="s">
@@ -12449,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="18"/>
@@ -12477,20 +12455,20 @@
         <v>40</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -12510,17 +12488,17 @@
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L15" s="16"/>
     </row>
@@ -12541,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="18" t="s">
@@ -12551,13 +12529,13 @@
         <v>368</v>
       </c>
       <c r="K16" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>64</v>
@@ -12572,17 +12550,17 @@
         <v>4</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K17" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L17" s="16"/>
     </row>
@@ -12603,7 +12581,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="18" t="s">
@@ -12613,7 +12591,7 @@
         <v>369</v>
       </c>
       <c r="K18" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L18" s="16"/>
     </row>
@@ -12634,7 +12612,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="18" t="s">
@@ -12644,15 +12622,15 @@
         <v>131</v>
       </c>
       <c r="K19" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>64</v>
@@ -12667,14 +12645,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K20" s="145"/>
       <c r="L20" s="16"/>
@@ -12694,10 +12672,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="18" t="s">
@@ -12707,15 +12685,15 @@
         <v>99</v>
       </c>
       <c r="K21" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="26" t="s">
@@ -12728,10 +12706,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G22" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -12741,7 +12719,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>27</v>
@@ -12753,24 +12731,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G23" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
         <v>130</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K23" s="162"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>27</v>
@@ -12782,27 +12760,27 @@
         <v>1</v>
       </c>
       <c r="F24" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>27</v>
@@ -12814,24 +12792,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G25" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K25" s="162"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>27</v>
@@ -12843,23 +12821,23 @@
         <v>1</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G26" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K26" s="162"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="26"/>
@@ -12870,10 +12848,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="18"/>
@@ -12895,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>236</v>
@@ -12910,10 +12888,10 @@
         <v>101</v>
       </c>
       <c r="K28" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -12931,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>237</v>
@@ -12946,7 +12924,7 @@
         <v>102</v>
       </c>
       <c r="K29" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -12964,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G30" s="51" t="s">
         <v>374</v>
@@ -12979,10 +12957,10 @@
         <v>103</v>
       </c>
       <c r="K30" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -13000,10 +12978,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G31" s="119" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="18" t="s">
@@ -13013,13 +12991,13 @@
         <v>104</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>67</v>
@@ -13031,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>260</v>
@@ -13046,10 +13024,10 @@
         <v>132</v>
       </c>
       <c r="K32" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13067,10 +13045,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G33" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="18" t="s">
@@ -13080,7 +13058,7 @@
         <v>85</v>
       </c>
       <c r="K33" s="145" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -13100,10 +13078,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="18" t="s">
@@ -13113,7 +13091,7 @@
         <v>86</v>
       </c>
       <c r="K34" s="146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -13131,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>375</v>
@@ -13146,7 +13124,7 @@
         <v>87</v>
       </c>
       <c r="K35" s="146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -13166,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>299</v>
@@ -13181,7 +13159,7 @@
         <v>88</v>
       </c>
       <c r="K36" s="146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -13201,10 +13179,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G37" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="18" t="s">
@@ -13214,7 +13192,7 @@
         <v>89</v>
       </c>
       <c r="K37" s="146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -13234,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>300</v>
@@ -13249,7 +13227,7 @@
         <v>90</v>
       </c>
       <c r="K38" s="146" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="130" x14ac:dyDescent="0.35">
@@ -13269,10 +13247,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G39" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="18" t="s">
@@ -13282,15 +13260,15 @@
         <v>91</v>
       </c>
       <c r="K39" s="145" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>67</v>
@@ -13302,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>376</v>
@@ -13315,7 +13293,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="145" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -13323,7 +13301,7 @@
         <v>363</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>71</v>
@@ -13335,10 +13313,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="18" t="s">
@@ -13348,7 +13326,7 @@
         <v>91</v>
       </c>
       <c r="K41" s="145" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -13356,7 +13334,7 @@
         <v>363</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>71</v>
@@ -13368,10 +13346,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="18" t="s">
@@ -13381,15 +13359,15 @@
         <v>91</v>
       </c>
       <c r="K42" s="145" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>67</v>
@@ -13401,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>300</v>
@@ -13416,7 +13394,7 @@
         <v>91</v>
       </c>
       <c r="K43" s="145" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="52" x14ac:dyDescent="0.35">
@@ -13434,20 +13412,20 @@
         <v>1</v>
       </c>
       <c r="F44" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G44" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="110" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K44" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -13465,10 +13443,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="18" t="s">
@@ -13478,7 +13456,7 @@
         <v>404</v>
       </c>
       <c r="K45" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -13496,26 +13474,26 @@
         <v>1</v>
       </c>
       <c r="F46" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G46" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J46" s="108" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K46" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -13523,22 +13501,22 @@
         <v>1</v>
       </c>
       <c r="F47" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G47" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="18"/>
       <c r="J47" s="108"/>
       <c r="K47" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>71</v>
@@ -13550,10 +13528,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="18" t="s">
@@ -13563,13 +13541,13 @@
         <v>397</v>
       </c>
       <c r="K48" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>71</v>
@@ -13581,10 +13559,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G49" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="18" t="s">
@@ -13594,13 +13572,13 @@
         <v>398</v>
       </c>
       <c r="K49" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>71</v>
@@ -13612,10 +13590,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G50" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="18" t="s">
@@ -13625,13 +13603,13 @@
         <v>399</v>
       </c>
       <c r="K50" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>71</v>
@@ -13643,26 +13621,26 @@
         <v>1</v>
       </c>
       <c r="F51" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G51" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K51" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>67</v>
@@ -13674,10 +13652,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G52" s="120" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>12</v>
@@ -13689,13 +13667,13 @@
         <v>400</v>
       </c>
       <c r="K52" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>71</v>
@@ -13707,10 +13685,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G53" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="18" t="s">
@@ -13720,13 +13698,13 @@
         <v>401</v>
       </c>
       <c r="K53" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>71</v>
@@ -13738,10 +13716,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G54" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="18" t="s">
@@ -13751,13 +13729,13 @@
         <v>402</v>
       </c>
       <c r="K54" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>71</v>
@@ -13769,10 +13747,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G55" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="18" t="s">
@@ -13782,7 +13760,7 @@
         <v>403</v>
       </c>
       <c r="K55" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
@@ -13800,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H56" s="31"/>
       <c r="I56" s="25" t="s">
@@ -13817,7 +13795,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>71</v>
@@ -13829,10 +13807,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G57" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25" t="s">
@@ -13846,7 +13824,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>67</v>
@@ -13858,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>376</v>
@@ -13877,7 +13855,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>71</v>
@@ -13889,10 +13867,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G59" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25" t="s">
@@ -13906,7 +13884,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>67</v>
@@ -13918,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>300</v>
@@ -13965,10 +13943,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25" t="s">
@@ -13981,7 +13959,7 @@
     </row>
     <row r="63" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B63" s="87" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>67</v>
@@ -13993,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>381</v>
@@ -14008,12 +13986,12 @@
         <v>114</v>
       </c>
       <c r="K63" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="52" x14ac:dyDescent="0.35">
       <c r="B64" s="87" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>129</v>
@@ -14025,10 +14003,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="25" t="s">
@@ -14038,12 +14016,12 @@
         <v>115</v>
       </c>
       <c r="K64" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B65" s="87" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>67</v>
@@ -14055,7 +14033,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>377</v>
@@ -14070,12 +14048,12 @@
         <v>116</v>
       </c>
       <c r="K65" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B66" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>72</v>
@@ -14087,10 +14065,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G66" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="25" t="s">
@@ -14100,12 +14078,12 @@
         <v>117</v>
       </c>
       <c r="K66" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B67" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>67</v>
@@ -14117,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>259</v>
@@ -14132,12 +14110,12 @@
         <v>118</v>
       </c>
       <c r="K67" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B68" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>71</v>
@@ -14149,10 +14127,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G68" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="25" t="s">
@@ -14162,27 +14140,27 @@
         <v>119</v>
       </c>
       <c r="K68" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B69" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E69" s="39">
         <v>1</v>
       </c>
       <c r="F69" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G69" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="25" t="s">
@@ -14192,7 +14170,7 @@
         <v>120</v>
       </c>
       <c r="K69" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14203,13 +14181,13 @@
         <v>67</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E70" s="39">
         <v>1</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>333</v>
@@ -14218,30 +14196,30 @@
         <v>12</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J70" s="110" t="s">
         <v>121</v>
       </c>
       <c r="K70" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B71" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E71" s="39">
         <v>1</v>
       </c>
       <c r="F71" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>265</v>
@@ -14254,12 +14232,12 @@
         <v>32</v>
       </c>
       <c r="K71" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B72" s="38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>67</v>
@@ -14271,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>378</v>
@@ -14280,30 +14258,30 @@
         <v>12</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J72" s="110" t="s">
         <v>122</v>
       </c>
       <c r="K72" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B73" s="38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E73" s="39">
         <v>1</v>
       </c>
       <c r="F73" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>379</v>
@@ -14318,12 +14296,12 @@
         <v>123</v>
       </c>
       <c r="K73" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B74" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>71</v>
@@ -14335,10 +14313,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H74" s="25"/>
       <c r="I74" s="25" t="s">
@@ -14348,12 +14326,12 @@
         <v>124</v>
       </c>
       <c r="K74" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="B75" s="38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>71</v>
@@ -14365,10 +14343,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G75" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H75" s="25"/>
       <c r="I75" s="25" t="s">
@@ -14378,7 +14356,7 @@
         <v>125</v>
       </c>
       <c r="K75" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14389,13 +14367,13 @@
         <v>67</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E76" s="39">
         <v>1</v>
       </c>
       <c r="F76" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G76" s="35" t="s">
         <v>274</v>
@@ -14410,7 +14388,7 @@
         <v>34</v>
       </c>
       <c r="K76" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14422,16 +14400,16 @@
         <v>71</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E77" s="39">
         <v>1</v>
       </c>
       <c r="F77" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H77" s="25"/>
       <c r="I77" s="25" t="s">
@@ -14441,7 +14419,7 @@
         <v>126</v>
       </c>
       <c r="K77" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14459,7 +14437,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G78" s="35" t="s">
         <v>259</v>
@@ -14474,7 +14452,7 @@
         <v>127</v>
       </c>
       <c r="K78" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14492,10 +14470,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G79" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18" t="s">
@@ -14505,7 +14483,7 @@
         <v>113</v>
       </c>
       <c r="K79" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
@@ -14522,7 +14500,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>248</v>
@@ -14534,104 +14512,104 @@
         <v>112</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K80" s="160"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="187"/>
-      <c r="B81" s="181" t="s">
+      <c r="A81" s="188"/>
+      <c r="B81" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="177" t="s">
+      <c r="C81" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="D81" s="183" t="s">
+      <c r="D81" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="176">
-        <v>1</v>
-      </c>
-      <c r="F81" s="188" t="s">
-        <v>444</v>
+      <c r="E81" s="177">
+        <v>1</v>
+      </c>
+      <c r="F81" s="189" t="s">
+        <v>442</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="176"/>
-      <c r="I81" s="185" t="s">
+      <c r="H81" s="177"/>
+      <c r="I81" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="J81" s="177" t="s">
-        <v>522</v>
-      </c>
-      <c r="K81" s="189"/>
-      <c r="L81" s="186"/>
+      <c r="J81" s="178" t="s">
+        <v>520</v>
+      </c>
+      <c r="K81" s="190"/>
+      <c r="L81" s="187"/>
     </row>
     <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="187"/>
-      <c r="B82" s="181"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="183"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="188"/>
+      <c r="A82" s="188"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="177"/>
+      <c r="F82" s="189"/>
       <c r="G82" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="H82" s="176"/>
-      <c r="I82" s="185"/>
-      <c r="J82" s="177"/>
-      <c r="K82" s="189"/>
-      <c r="L82" s="186"/>
+        <v>560</v>
+      </c>
+      <c r="H82" s="177"/>
+      <c r="I82" s="186"/>
+      <c r="J82" s="178"/>
+      <c r="K82" s="190"/>
+      <c r="L82" s="187"/>
     </row>
     <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="187"/>
-      <c r="B83" s="181"/>
-      <c r="C83" s="177"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="188"/>
+      <c r="A83" s="188"/>
+      <c r="B83" s="182"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="177"/>
+      <c r="F83" s="189"/>
       <c r="G83" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="H83" s="176"/>
-      <c r="I83" s="185"/>
-      <c r="J83" s="177"/>
-      <c r="K83" s="189"/>
-      <c r="L83" s="186"/>
+        <v>436</v>
+      </c>
+      <c r="H83" s="177"/>
+      <c r="I83" s="186"/>
+      <c r="J83" s="178"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="187"/>
     </row>
     <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="187"/>
-      <c r="B84" s="181"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="176"/>
-      <c r="F84" s="188"/>
+      <c r="A84" s="188"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="189"/>
       <c r="G84" s="119" t="s">
-        <v>560</v>
-      </c>
-      <c r="H84" s="176"/>
-      <c r="I84" s="185"/>
-      <c r="J84" s="177"/>
-      <c r="K84" s="189"/>
-      <c r="L84" s="186"/>
+        <v>558</v>
+      </c>
+      <c r="H84" s="177"/>
+      <c r="I84" s="186"/>
+      <c r="J84" s="178"/>
+      <c r="K84" s="190"/>
+      <c r="L84" s="187"/>
     </row>
     <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="187"/>
-      <c r="B85" s="181"/>
-      <c r="C85" s="177"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="176"/>
-      <c r="F85" s="188"/>
+      <c r="A85" s="188"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="177"/>
+      <c r="F85" s="189"/>
       <c r="G85" s="119" t="s">
-        <v>561</v>
-      </c>
-      <c r="H85" s="176"/>
-      <c r="I85" s="185"/>
-      <c r="J85" s="177"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="186"/>
+        <v>559</v>
+      </c>
+      <c r="H85" s="177"/>
+      <c r="I85" s="186"/>
+      <c r="J85" s="178"/>
+      <c r="K85" s="190"/>
+      <c r="L85" s="187"/>
     </row>
     <row r="86" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A86" s="36" t="s">
@@ -14648,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G86" s="51" t="s">
         <v>380</v>
@@ -14661,7 +14639,7 @@
         <v>111</v>
       </c>
       <c r="K86" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14679,10 +14657,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G87" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H87" s="25"/>
       <c r="I87" s="18" t="s">
@@ -14692,7 +14670,7 @@
         <v>106</v>
       </c>
       <c r="K87" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14710,10 +14688,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="18" t="s">
@@ -14723,7 +14701,7 @@
         <v>107</v>
       </c>
       <c r="K88" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14741,10 +14719,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G89" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H89" s="25"/>
       <c r="I89" s="18" t="s">
@@ -14754,7 +14732,7 @@
         <v>108</v>
       </c>
       <c r="K89" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -14772,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G90" s="51" t="s">
         <v>253</v>
@@ -14785,7 +14763,7 @@
         <v>109</v>
       </c>
       <c r="K90" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -14803,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G91" s="51" t="s">
         <v>255</v>
@@ -14818,12 +14796,12 @@
         <v>110</v>
       </c>
       <c r="K91" s="155" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="26"/>
@@ -14834,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G92" s="51"/>
       <c r="H92" s="25"/>
@@ -14845,10 +14823,10 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>24</v>
@@ -14857,25 +14835,25 @@
         <v>1</v>
       </c>
       <c r="F93" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G93" s="51"/>
       <c r="H93" s="25"/>
       <c r="I93" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J93" s="110" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K93" s="161"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D94" s="37" t="s">
         <v>24</v>
@@ -14884,12 +14862,12 @@
         <v>1</v>
       </c>
       <c r="F94" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G94" s="51"/>
       <c r="H94" s="25"/>
       <c r="I94" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J94" s="110" t="s">
         <v>46</v>
@@ -14898,7 +14876,7 @@
     </row>
     <row r="95" spans="1:12" ht="52" x14ac:dyDescent="0.35">
       <c r="A95" s="36" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="26" t="s">
@@ -14911,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G95" s="51" t="s">
         <v>283</v>
@@ -14920,22 +14898,22 @@
         <v>12</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J95" s="110" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D96" s="37" t="s">
         <v>24</v>
@@ -14944,7 +14922,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G96" s="51"/>
       <c r="H96" s="25"/>
@@ -14958,11 +14936,11 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="36" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D97" s="37" t="s">
         <v>24</v>
@@ -14971,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G97" s="51"/>
       <c r="H97" s="25"/>
@@ -14979,7 +14957,7 @@
         <v>98</v>
       </c>
       <c r="J97" s="110" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K97" s="161"/>
     </row>
@@ -14998,10 +14976,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G98" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -15011,12 +14989,12 @@
         <v>105</v>
       </c>
       <c r="K98" s="145" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="47" t="s">
@@ -15029,23 +15007,23 @@
         <v>1</v>
       </c>
       <c r="F99" s="113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G99" s="114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H99" s="25"/>
       <c r="I99" s="18" t="s">
         <v>112</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K99" s="162"/>
     </row>
     <row r="100" spans="1:11" ht="52" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="26" t="s">
@@ -15058,10 +15036,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="172" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G100" s="171" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H100" s="169"/>
       <c r="I100" s="18" t="s">
@@ -15071,7 +15049,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="145" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -15216,7 +15194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8DE6E3-30D2-41B6-BBA2-2DDBEC0FD510}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -15266,7 +15244,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -15303,17 +15281,17 @@
         <v>1</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G3" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K3" s="126"/>
       <c r="L3" s="5"/>
@@ -15333,26 +15311,26 @@
         <v>1</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K4" s="143"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="121" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>7</v>
@@ -15361,23 +15339,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K5" s="165"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>201</v>
@@ -15389,23 +15367,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>201</v>
@@ -15417,25 +15395,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="121" t="s">
@@ -15448,15 +15426,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97"/>
       <c r="H8" s="39"/>
       <c r="I8" s="121" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K8" s="165"/>
       <c r="M8" s="137"/>
@@ -15479,7 +15457,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="25" t="s">
@@ -15492,10 +15470,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="25"/>
@@ -15516,10 +15494,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="25" t="s">
@@ -15529,7 +15507,7 @@
         <v>134</v>
       </c>
       <c r="K11" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15546,25 +15524,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J12" s="71" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
@@ -15577,10 +15555,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G13" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="25"/>
@@ -15589,7 +15567,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>27</v>
@@ -15601,17 +15579,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J14" s="108" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K14" s="164"/>
     </row>
@@ -15630,20 +15608,20 @@
         <v>1</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G15" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J15" s="108" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15661,20 +15639,20 @@
         <v>1</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J16" s="108" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="150" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="52" x14ac:dyDescent="0.35">
@@ -15692,20 +15670,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>241</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J17" s="108" t="s">
         <v>137</v>
       </c>
       <c r="K17" s="150" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="78" x14ac:dyDescent="0.35">
@@ -15723,25 +15701,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="150" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>71</v>
@@ -15753,10 +15731,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25" t="s">
@@ -15766,13 +15744,13 @@
         <v>93</v>
       </c>
       <c r="K19" s="130" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>51</v>
@@ -15784,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>376</v>
@@ -15799,13 +15777,13 @@
         <v>92</v>
       </c>
       <c r="K20" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>71</v>
@@ -15817,10 +15795,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G21" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
@@ -15830,13 +15808,13 @@
         <v>94</v>
       </c>
       <c r="K21" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>67</v>
@@ -15848,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>300</v>
@@ -15863,7 +15841,7 @@
         <v>90</v>
       </c>
       <c r="K22" s="130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -15882,20 +15860,20 @@
         <v>1</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H23" s="69"/>
       <c r="I23" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J23" s="71" t="s">
         <v>139</v>
       </c>
       <c r="K23" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -15912,20 +15890,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J24" s="108" t="s">
         <v>404</v>
       </c>
       <c r="K24" s="150" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -15942,20 +15920,20 @@
         <v>1</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H25" s="50"/>
       <c r="I25" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J25" s="108" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K25" s="150" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -15972,20 +15950,20 @@
         <v>1</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G26" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J26" s="71" t="s">
         <v>397</v>
       </c>
       <c r="K26" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -16002,20 +15980,20 @@
         <v>1</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G27" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J27" s="71" t="s">
         <v>398</v>
       </c>
       <c r="K27" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -16032,20 +16010,20 @@
         <v>1</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J28" s="71" t="s">
         <v>399</v>
       </c>
       <c r="K28" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -16062,20 +16040,20 @@
         <v>1</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G29" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K29" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -16092,20 +16070,20 @@
         <v>1</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>351</v>
       </c>
       <c r="H30" s="69"/>
       <c r="I30" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J30" s="71" t="s">
         <v>400</v>
       </c>
       <c r="K30" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -16122,25 +16100,25 @@
         <v>1</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G31" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H31" s="69"/>
       <c r="I31" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J31" s="71" t="s">
         <v>401</v>
       </c>
       <c r="K31" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>71</v>
@@ -16152,25 +16130,25 @@
         <v>1</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G32" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H32" s="69"/>
       <c r="I32" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J32" s="71" t="s">
         <v>402</v>
       </c>
       <c r="K32" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>71</v>
@@ -16182,20 +16160,20 @@
         <v>1</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G33" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J33" s="71" t="s">
         <v>403</v>
       </c>
       <c r="K33" s="149" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16213,20 +16191,20 @@
         <v>1</v>
       </c>
       <c r="F34" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G34" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J34" s="71" t="s">
         <v>140</v>
       </c>
       <c r="K34" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16246,20 +16224,20 @@
         <v>1</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G35" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H35" s="69"/>
       <c r="I35" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J35" s="71" t="s">
         <v>405</v>
       </c>
       <c r="K35" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16277,20 +16255,20 @@
         <v>1</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G36" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H36" s="69"/>
       <c r="I36" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J36" s="71" t="s">
         <v>406</v>
       </c>
       <c r="K36" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16298,7 +16276,7 @@
         <v>395</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>69</v>
@@ -16310,20 +16288,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G37" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H37" s="69"/>
       <c r="I37" s="169" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J37" s="71" t="s">
         <v>407</v>
       </c>
       <c r="K37" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -16357,25 +16335,25 @@
         <v>1</v>
       </c>
       <c r="F39" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>327</v>
       </c>
       <c r="H39" s="69"/>
       <c r="I39" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J39" s="71" t="s">
         <v>138</v>
       </c>
       <c r="K39" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="28" t="s">
@@ -16388,17 +16366,17 @@
         <v>1</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>242</v>
       </c>
       <c r="H40" s="69"/>
       <c r="I40" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K40" s="163"/>
     </row>
@@ -16417,7 +16395,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="69"/>
@@ -16426,7 +16404,7 @@
       </c>
       <c r="J41" s="69"/>
       <c r="K41" s="149" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16446,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>335</v>
@@ -16459,7 +16437,7 @@
         <v>144</v>
       </c>
       <c r="K42" s="149" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16479,10 +16457,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G43" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H43" s="69"/>
       <c r="I43" s="71" t="s">
@@ -16492,7 +16470,7 @@
         <v>145</v>
       </c>
       <c r="K43" s="149" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16510,10 +16488,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H44" s="69"/>
       <c r="I44" s="71" t="s">
@@ -16521,7 +16499,7 @@
       </c>
       <c r="J44" s="69"/>
       <c r="K44" s="149" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16539,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>328</v>
@@ -16552,7 +16530,7 @@
         <v>162</v>
       </c>
       <c r="K45" s="149" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -16572,10 +16550,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G46" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H46" s="69"/>
       <c r="I46" s="71" t="s">
@@ -16585,7 +16563,7 @@
         <v>163</v>
       </c>
       <c r="K46" s="152" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -16603,10 +16581,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G47" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H47" s="69"/>
       <c r="I47" s="71" t="s">
@@ -16614,7 +16592,7 @@
       </c>
       <c r="J47" s="69"/>
       <c r="K47" s="152" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16634,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>333</v>
@@ -16647,7 +16625,7 @@
         <v>121</v>
       </c>
       <c r="K48" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="52" x14ac:dyDescent="0.35">
@@ -16667,10 +16645,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G49" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H49" s="69"/>
       <c r="I49" s="71" t="s">
@@ -16680,7 +16658,7 @@
         <v>147</v>
       </c>
       <c r="K49" s="149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -16698,10 +16676,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G50" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H50" s="69"/>
       <c r="I50" s="71" t="s">
@@ -16727,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>334</v>
@@ -16740,7 +16718,7 @@
         <v>149</v>
       </c>
       <c r="K51" s="149" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16760,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>233</v>
@@ -16773,7 +16751,7 @@
         <v>151</v>
       </c>
       <c r="K52" s="149" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="98.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16793,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>234</v>
@@ -16806,7 +16784,7 @@
         <v>152</v>
       </c>
       <c r="K53" s="149" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L53" s="6"/>
     </row>
@@ -16827,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>357</v>
@@ -16840,7 +16818,7 @@
         <v>153</v>
       </c>
       <c r="K54" s="152" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.35">
@@ -16860,10 +16838,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G55" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H55" s="69"/>
       <c r="I55" s="71" t="s">
@@ -16873,7 +16851,7 @@
         <v>154</v>
       </c>
       <c r="K55" s="152" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="67" customHeight="1" x14ac:dyDescent="0.35">
@@ -16893,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>352</v>
@@ -16906,7 +16884,7 @@
         <v>155</v>
       </c>
       <c r="K56" s="152" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
@@ -16926,7 +16904,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>353</v>
@@ -16939,7 +16917,7 @@
         <v>156</v>
       </c>
       <c r="K57" s="152" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -16959,10 +16937,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G58" s="97" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H58" s="69"/>
       <c r="I58" s="71" t="s">
@@ -16972,7 +16950,7 @@
         <v>157</v>
       </c>
       <c r="K58" s="152" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="97" customHeight="1" x14ac:dyDescent="0.35">
@@ -16992,7 +16970,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>354</v>
@@ -17005,7 +16983,7 @@
         <v>158</v>
       </c>
       <c r="K59" s="152" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -17025,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>355</v>
@@ -17038,7 +17016,7 @@
         <v>159</v>
       </c>
       <c r="K60" s="152" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="52.5" x14ac:dyDescent="0.35">
@@ -17058,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="98" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>356</v>
@@ -17071,7 +17049,7 @@
         <v>160</v>
       </c>
       <c r="K61" s="152" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -17187,10 +17165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="192"/>
       <c r="D1" s="123" t="s">
         <v>9</v>
       </c>
